--- a/conejo/output_test.xlsx
+++ b/conejo/output_test.xlsx
@@ -521,7 +521,7 @@
         <v>76</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6.9315311</v>
       </c>
     </row>
     <row r="9">
@@ -532,7 +532,7 @@
         <v>76</v>
       </c>
       <c r="C9" t="n">
-        <v>6.8762463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -565,7 +565,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>56.647181</v>
+        <v>56.673581</v>
       </c>
     </row>
     <row r="13">
@@ -708,7 +708,7 @@
         <v>400</v>
       </c>
       <c r="C25" t="n">
-        <v>400</v>
+        <v>387.49489</v>
       </c>
     </row>
     <row r="26">
@@ -906,7 +906,7 @@
         <v>100</v>
       </c>
       <c r="C43" t="n">
-        <v>10.829122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
@@ -928,7 +928,7 @@
         <v>100</v>
       </c>
       <c r="C45" t="n">
-        <v>100</v>
+        <v>12.849525</v>
       </c>
     </row>
     <row r="46">
@@ -1038,7 +1038,7 @@
         <v>155</v>
       </c>
       <c r="C55" t="n">
-        <v>155</v>
+        <v>148.53401</v>
       </c>
     </row>
     <row r="56">
@@ -1071,7 +1071,7 @@
         <v>400</v>
       </c>
       <c r="C58" t="n">
-        <v>318.9444</v>
+        <v>329.51646</v>
       </c>
     </row>
     <row r="59">
@@ -1258,7 +1258,7 @@
         <v>76</v>
       </c>
       <c r="C75" t="n">
-        <v>0.42087491</v>
+        <v>7.1697137</v>
       </c>
     </row>
     <row r="76">
@@ -1269,7 +1269,7 @@
         <v>100</v>
       </c>
       <c r="C76" t="n">
-        <v>73.28218</v>
+        <v>29.497941</v>
       </c>
     </row>
     <row r="77">
@@ -1280,7 +1280,7 @@
         <v>100</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78">
@@ -1423,7 +1423,7 @@
         <v>400</v>
       </c>
       <c r="C90" t="n">
-        <v>400</v>
+        <v>343.33235</v>
       </c>
     </row>
     <row r="91">
@@ -1547,7 +1547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1590,10 +1590,10 @@
         <v>175</v>
       </c>
       <c r="C2" t="n">
-        <v>19.2526</v>
+        <v>19.206471</v>
       </c>
       <c r="D2" t="n">
-        <v>2.260881</v>
+        <v>1.9296547</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1610,10 +1610,10 @@
         <v>175</v>
       </c>
       <c r="C3" t="n">
-        <v>-85.53026699999999</v>
+        <v>-85.480406</v>
       </c>
       <c r="D3" t="n">
-        <v>-10.408931</v>
+        <v>-10.328818</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1630,10 +1630,10 @@
         <v>175</v>
       </c>
       <c r="C4" t="n">
-        <v>-41.722333</v>
+        <v>-41.726066</v>
       </c>
       <c r="D4" t="n">
-        <v>-9.533606499999999</v>
+        <v>-7.5548624</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1650,10 +1650,10 @@
         <v>175</v>
       </c>
       <c r="C5" t="n">
-        <v>-49.371153</v>
+        <v>-49.361998</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.2501356</v>
+        <v>-6.6889609</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>-21.5</v>
       </c>
       <c r="D6" t="n">
-        <v>43.479014</v>
+        <v>36.576281</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1690,10 +1690,10 @@
         <v>175</v>
       </c>
       <c r="C7" t="n">
-        <v>-6.5908706</v>
+        <v>-6.6669349</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.3363403</v>
+        <v>0.09193752500000001</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1710,10 +1710,10 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>-258.9394</v>
+        <v>-258.81347</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.4946584</v>
+        <v>-4.1768436</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1730,10 +1730,10 @@
         <v>175</v>
       </c>
       <c r="C9" t="n">
-        <v>-123.37115</v>
+        <v>-123.362</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.7560165</v>
+        <v>-5.4775743</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1750,10 +1750,10 @@
         <v>175</v>
       </c>
       <c r="C10" t="n">
-        <v>-112.72233</v>
+        <v>-112.72607</v>
       </c>
       <c r="D10" t="n">
-        <v>-9.8700867</v>
+        <v>-7.8215046</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>-157.5</v>
       </c>
       <c r="D11" t="n">
-        <v>13.813645</v>
+        <v>11.620589</v>
       </c>
       <c r="E11" t="n">
-        <v>78.957234</v>
+        <v>65.502892</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1790,10 +1790,10 @@
         <v>175</v>
       </c>
       <c r="C12" t="n">
-        <v>109.14718</v>
+        <v>109.17358</v>
       </c>
       <c r="D12" t="n">
-        <v>0.70761566</v>
+        <v>2.2375402</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1807,19 +1807,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="C13" t="n">
-        <v>22.5</v>
+        <v>-47.165093</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.8676413</v>
+        <v>5.5959246</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.7717104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1830,10 +1830,10 @@
         <v>175</v>
       </c>
       <c r="C14" t="n">
-        <v>-47.184702</v>
+        <v>-14.661327</v>
       </c>
       <c r="D14" t="n">
-        <v>4.2862322</v>
+        <v>0.45643815</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1847,13 +1847,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>175</v>
+        <v>400</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.668117</v>
+        <v>-157.73234</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.3721899</v>
+        <v>-0.43444711</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1870,10 +1870,10 @@
         <v>400</v>
       </c>
       <c r="C16" t="n">
-        <v>-157.74633</v>
+        <v>-194.46169</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.4002469</v>
+        <v>-1.0760161</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1890,10 +1890,10 @@
         <v>400</v>
       </c>
       <c r="C17" t="n">
-        <v>-194.40039</v>
+        <v>-221.57902</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.5236352</v>
+        <v>4.7050393</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1910,10 +1910,10 @@
         <v>400</v>
       </c>
       <c r="C18" t="n">
-        <v>-221.6182</v>
+        <v>-258.30837</v>
       </c>
       <c r="D18" t="n">
-        <v>4.2581752</v>
+        <v>4.0634703</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1927,13 +1927,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="C19" t="n">
-        <v>-258.27225</v>
+        <v>-283.14989</v>
       </c>
       <c r="D19" t="n">
-        <v>4.1347869</v>
+        <v>5.5703156</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>500</v>
       </c>
       <c r="C20" t="n">
-        <v>-283.02443</v>
+        <v>-96.161467</v>
       </c>
       <c r="D20" t="n">
-        <v>0.86737158</v>
+        <v>-2.7387301</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>500</v>
       </c>
       <c r="C21" t="n">
-        <v>-96.340096</v>
+        <v>-218.87352</v>
       </c>
       <c r="D21" t="n">
-        <v>0.17001399</v>
+        <v>6.2118846</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1990,10 +1990,10 @@
         <v>500</v>
       </c>
       <c r="C22" t="n">
-        <v>-218.87983</v>
+        <v>-233.89655</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9907598399999999</v>
+        <v>-9.103385100000001</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2010,10 +2010,10 @@
         <v>500</v>
       </c>
       <c r="C23" t="n">
-        <v>-233.79281</v>
+        <v>-140.0234</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.14166387</v>
+        <v>-15.31527</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2030,10 +2030,10 @@
         <v>500</v>
       </c>
       <c r="C24" t="n">
-        <v>-139.90427</v>
+        <v>-290.16147</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.1324237</v>
+        <v>-3.8472637</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="C25" t="n">
-        <v>-36</v>
+        <v>-0.1504448</v>
       </c>
       <c r="D25" t="n">
-        <v>3.8795577</v>
+        <v>-0.1659946</v>
       </c>
       <c r="E25" t="n">
-        <v>7.6906723</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2070,10 +2070,10 @@
         <v>500</v>
       </c>
       <c r="C26" t="n">
-        <v>-290.3401</v>
+        <v>-210.33151</v>
       </c>
       <c r="D26" t="n">
-        <v>0.23882917</v>
+        <v>-0.9790185300000001</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>500</v>
       </c>
       <c r="C27" t="n">
-        <v>0.25897698</v>
+        <v>-210.33151</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.28877326</v>
+        <v>-0.9790185300000001</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2110,10 +2110,10 @@
         <v>500</v>
       </c>
       <c r="C28" t="n">
-        <v>-210.59919</v>
+        <v>258.81347</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.31143548</v>
+        <v>2.5856651</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2130,10 +2130,10 @@
         <v>500</v>
       </c>
       <c r="C29" t="n">
-        <v>-210.59919</v>
+        <v>-279.83186</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.31143548</v>
+        <v>-0.42829748</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2150,10 +2150,10 @@
         <v>500</v>
       </c>
       <c r="C30" t="n">
-        <v>258.9394</v>
+        <v>44.519951</v>
       </c>
       <c r="D30" t="n">
-        <v>1.5443123</v>
+        <v>-1.3454831</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2170,10 +2170,10 @@
         <v>500</v>
       </c>
       <c r="C31" t="n">
-        <v>-280.23863</v>
+        <v>-144.40956</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.011938362</v>
+        <v>-0.19948779</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2190,10 +2190,10 @@
         <v>500</v>
       </c>
       <c r="C32" t="n">
-        <v>45.157515</v>
+        <v>-135.4223</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.28702947</v>
+        <v>-0.23350449</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>500</v>
       </c>
       <c r="C33" t="n">
-        <v>-144.76142</v>
+        <v>-38.704781</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.0055605215</v>
+        <v>-0.18523866</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>500</v>
       </c>
       <c r="C34" t="n">
-        <v>-135.47722</v>
+        <v>-38.704781</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.0065087029</v>
+        <v>-0.18523866</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>500</v>
       </c>
       <c r="C35" t="n">
-        <v>-38.880709</v>
+        <v>-68.240025</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.0051633414</v>
+        <v>-1.1699853</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -2270,10 +2270,10 @@
         <v>500</v>
       </c>
       <c r="C36" t="n">
-        <v>-38.880709</v>
+        <v>-68.240025</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0051633414</v>
+        <v>-1.1699853</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>500</v>
       </c>
       <c r="C37" t="n">
-        <v>-67.921243</v>
+        <v>-132.24002</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.24959085</v>
+        <v>-0.64349194</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>500</v>
       </c>
       <c r="C38" t="n">
-        <v>-67.921243</v>
+        <v>-132.24002</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.24959085</v>
+        <v>-0.64349194</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -2330,10 +2330,10 @@
         <v>500</v>
       </c>
       <c r="C39" t="n">
-        <v>-131.92124</v>
+        <v>-164.5777</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.13727497</v>
+        <v>0.15122196</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -2347,13 +2347,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>500</v>
+        <v>175</v>
       </c>
       <c r="C40" t="n">
-        <v>-131.92124</v>
+        <v>24.990052</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.13727497</v>
+        <v>1.1553358</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -2367,13 +2367,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>500</v>
+        <v>175</v>
       </c>
       <c r="C41" t="n">
-        <v>-164.52278</v>
+        <v>-91.732021</v>
       </c>
       <c r="D41" t="n">
-        <v>0.00421516</v>
+        <v>-5.2789907</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -2387,13 +2387,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="C42" t="n">
-        <v>22.460434</v>
+        <v>-41.25803</v>
       </c>
       <c r="D42" t="n">
-        <v>-1.9947706</v>
+        <v>-4.8879313</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -2410,10 +2410,10 @@
         <v>175</v>
       </c>
       <c r="C43" t="n">
-        <v>24.990052</v>
+        <v>-50.509948</v>
       </c>
       <c r="D43" t="n">
-        <v>0.63161766</v>
+        <v>-4.2256939</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -2430,10 +2430,10 @@
         <v>175</v>
       </c>
       <c r="C44" t="n">
-        <v>-91.732021</v>
+        <v>-21.5</v>
       </c>
       <c r="D44" t="n">
-        <v>-2.7110294</v>
+        <v>22.233056</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>175</v>
       </c>
       <c r="C45" t="n">
-        <v>-41.25803</v>
+        <v>2.8699097</v>
       </c>
       <c r="D45" t="n">
-        <v>-2.7427007</v>
+        <v>-1.2517782</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -2467,13 +2467,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>175</v>
+        <v>400</v>
       </c>
       <c r="C46" t="n">
-        <v>-50.509948</v>
+        <v>-252.10193</v>
       </c>
       <c r="D46" t="n">
-        <v>-2.3528603</v>
+        <v>-4.2991834</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>175</v>
       </c>
       <c r="C47" t="n">
-        <v>-21.5</v>
+        <v>-124.50995</v>
       </c>
       <c r="D47" t="n">
-        <v>12.219265</v>
+        <v>-3.4604108</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>175</v>
       </c>
       <c r="C48" t="n">
-        <v>2.8699097</v>
+        <v>-112.25803</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.93696495</v>
+        <v>-5.0604465</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -2527,16 +2527,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="C49" t="n">
-        <v>-252.10193</v>
+        <v>-157.5</v>
       </c>
       <c r="D49" t="n">
-        <v>-1.3923069</v>
+        <v>7.0636272</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>40.400397</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -2550,10 +2550,10 @@
         <v>175</v>
       </c>
       <c r="C50" t="n">
-        <v>-124.50995</v>
+        <v>87.849525</v>
       </c>
       <c r="D50" t="n">
-        <v>-1.9267517</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -2570,10 +2570,10 @@
         <v>175</v>
       </c>
       <c r="C51" t="n">
-        <v>-112.25803</v>
+        <v>-58.630686</v>
       </c>
       <c r="D51" t="n">
-        <v>-2.8395019</v>
+        <v>1.7088044</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -2590,13 +2590,13 @@
         <v>175</v>
       </c>
       <c r="C52" t="n">
-        <v>-157.5</v>
+        <v>-24.519789</v>
       </c>
       <c r="D52" t="n">
-        <v>3.8821624</v>
+        <v>-1.7088044</v>
       </c>
       <c r="E52" t="n">
-        <v>22.315248</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2607,13 +2607,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>175</v>
+        <v>400</v>
       </c>
       <c r="C53" t="n">
-        <v>85.829122</v>
+        <v>-157.76346</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>-1.5841386</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -2627,13 +2627,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>175</v>
+        <v>400</v>
       </c>
       <c r="C54" t="n">
-        <v>-59.640887</v>
+        <v>-197.50726</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9671041500000001</v>
+        <v>-1.2244799</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -2647,13 +2647,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>175</v>
+        <v>400</v>
       </c>
       <c r="C55" t="n">
-        <v>-25.52999</v>
+        <v>-224.76701</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.9671041500000001</v>
+        <v>1.8334702</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -2670,10 +2670,10 @@
         <v>400</v>
       </c>
       <c r="C56" t="n">
-        <v>-158.08769</v>
+        <v>-264.51081</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.90081966</v>
+        <v>2.1931289</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -2687,13 +2687,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="C57" t="n">
-        <v>-198.19324</v>
+        <v>-279.98036</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.82444597</v>
+        <v>0.42987981</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -2707,13 +2707,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="C58" t="n">
-        <v>-225.09124</v>
+        <v>-102.55012</v>
       </c>
       <c r="D58" t="n">
-        <v>1.0333886</v>
+        <v>-0.25147907</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="C59" t="n">
-        <v>-265.19679</v>
+        <v>-210.42871</v>
       </c>
       <c r="D59" t="n">
-        <v>1.1097623</v>
+        <v>0.070221067</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -2750,10 +2750,10 @@
         <v>500</v>
       </c>
       <c r="C60" t="n">
-        <v>-280.85795</v>
+        <v>-251.58936</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1051203</v>
+        <v>0.97665391</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -2770,10 +2770,10 @@
         <v>500</v>
       </c>
       <c r="C61" t="n">
-        <v>-102.32097</v>
+        <v>-164.40907</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.025695778</v>
+        <v>0.90643285</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>500</v>
       </c>
       <c r="C62" t="n">
-        <v>-210.67324</v>
+        <v>-296.55012</v>
       </c>
       <c r="D62" t="n">
-        <v>0.028746604</v>
+        <v>-0.35326822</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -2810,10 +2810,10 @@
         <v>500</v>
       </c>
       <c r="C63" t="n">
-        <v>-252.71679</v>
+        <v>-25.194745</v>
       </c>
       <c r="D63" t="n">
-        <v>0.27138036</v>
+        <v>3.5199185</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -2830,10 +2830,10 @@
         <v>500</v>
       </c>
       <c r="C64" t="n">
-        <v>-165.53118</v>
+        <v>-215.68659</v>
       </c>
       <c r="D64" t="n">
-        <v>0.24263376</v>
+        <v>4</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -2850,10 +2850,10 @@
         <v>500</v>
       </c>
       <c r="C65" t="n">
-        <v>-296.32097</v>
+        <v>-215.68659</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.03609645</v>
+        <v>4</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         <v>500</v>
       </c>
       <c r="C66" t="n">
-        <v>-25.435432</v>
+        <v>252.10193</v>
       </c>
       <c r="D66" t="n">
-        <v>0.35463431</v>
+        <v>2.6613992</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -2890,10 +2890,10 @@
         <v>500</v>
       </c>
       <c r="C67" t="n">
-        <v>-212.33325</v>
+        <v>-286.74329</v>
       </c>
       <c r="D67" t="n">
-        <v>0.35014205</v>
+        <v>4.2931428</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -2910,10 +2910,10 @@
         <v>500</v>
       </c>
       <c r="C68" t="n">
-        <v>-212.33325</v>
+        <v>19.998428</v>
       </c>
       <c r="D68" t="n">
-        <v>0.35014205</v>
+        <v>0.8267477600000001</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>500</v>
       </c>
       <c r="C69" t="n">
-        <v>252.10193</v>
+        <v>-131.70395</v>
       </c>
       <c r="D69" t="n">
-        <v>0.86190426</v>
+        <v>-1.9771429</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -2950,10 +2950,10 @@
         <v>500</v>
       </c>
       <c r="C70" t="n">
-        <v>-283.73833</v>
+        <v>-133.43934</v>
       </c>
       <c r="D70" t="n">
-        <v>0.32928602</v>
+        <v>-2.3142857</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -2970,10 +2970,10 @@
         <v>500</v>
       </c>
       <c r="C71" t="n">
-        <v>16.981924</v>
+        <v>-32.351973</v>
       </c>
       <c r="D71" t="n">
-        <v>0.17443638</v>
+        <v>-1.8359184</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -2990,10 +2990,10 @@
         <v>500</v>
       </c>
       <c r="C72" t="n">
-        <v>-128.36038</v>
+        <v>-32.351973</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.17307021</v>
+        <v>-1.8359184</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -3010,10 +3010,10 @@
         <v>500</v>
       </c>
       <c r="C73" t="n">
-        <v>-132.91752</v>
+        <v>-80.50078600000001</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.20258219</v>
+        <v>0.7189111</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -3030,10 +3030,10 @@
         <v>500</v>
       </c>
       <c r="C74" t="n">
-        <v>-30.68019</v>
+        <v>-80.50078600000001</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.16070806</v>
+        <v>0.7189111</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -3050,10 +3050,10 @@
         <v>500</v>
       </c>
       <c r="C75" t="n">
-        <v>-30.68019</v>
+        <v>-144.50079</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.16070806</v>
+        <v>0.3954011</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
         <v>500</v>
       </c>
       <c r="C76" t="n">
-        <v>-82.009038</v>
+        <v>-144.50079</v>
       </c>
       <c r="D76" t="n">
-        <v>0.15168381</v>
+        <v>0.3954011</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -3090,10 +3090,10 @@
         <v>500</v>
       </c>
       <c r="C77" t="n">
-        <v>-82.009038</v>
+        <v>-166.56066</v>
       </c>
       <c r="D77" t="n">
-        <v>0.15168381</v>
+        <v>1.4987755</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -3107,13 +3107,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>500</v>
+        <v>175</v>
       </c>
       <c r="C78" t="n">
-        <v>-146.00904</v>
+        <v>19.007735</v>
       </c>
       <c r="D78" t="n">
-        <v>0.08342609600000001</v>
+        <v>2.4790319</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -3127,13 +3127,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>500</v>
+        <v>175</v>
       </c>
       <c r="C79" t="n">
-        <v>-146.00904</v>
+        <v>-85.265586</v>
       </c>
       <c r="D79" t="n">
-        <v>0.08342609600000001</v>
+        <v>-11.57872</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -3147,13 +3147,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>500</v>
+        <v>175</v>
       </c>
       <c r="C80" t="n">
-        <v>-167.08248</v>
+        <v>-41.742149</v>
       </c>
       <c r="D80" t="n">
-        <v>0.13119608</v>
+        <v>-10.386852</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -3170,10 +3170,10 @@
         <v>175</v>
       </c>
       <c r="C81" t="n">
-        <v>24.638879</v>
+        <v>-49.322551</v>
       </c>
       <c r="D81" t="n">
-        <v>2.4576356</v>
+        <v>-9.0058226</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -3190,10 +3190,10 @@
         <v>175</v>
       </c>
       <c r="C82" t="n">
-        <v>-91.35243</v>
+        <v>-21.5</v>
       </c>
       <c r="D82" t="n">
-        <v>-11.205583</v>
+        <v>47.613253</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>175</v>
       </c>
       <c r="C83" t="n">
-        <v>-41.286449</v>
+        <v>-6.9946419</v>
       </c>
       <c r="D83" t="n">
-        <v>-10.407261</v>
+        <v>-2.322918</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -3227,13 +3227,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>175</v>
+        <v>400</v>
       </c>
       <c r="C84" t="n">
-        <v>-50.440246</v>
+        <v>-258.27094</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.994748599999999</v>
+        <v>-2.9698308</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -3250,10 +3250,10 @@
         <v>175</v>
       </c>
       <c r="C85" t="n">
-        <v>-21.5</v>
+        <v>-123.32255</v>
       </c>
       <c r="D85" t="n">
-        <v>47.303076</v>
+        <v>-7.3748469</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -3270,10 +3270,10 @@
         <v>175</v>
       </c>
       <c r="C86" t="n">
-        <v>2.2908431</v>
+        <v>-112.74215</v>
       </c>
       <c r="D86" t="n">
-        <v>-2.697308</v>
+        <v>-10.753447</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -3287,16 +3287,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="C87" t="n">
-        <v>-273.64327</v>
+        <v>-157.5</v>
       </c>
       <c r="D87" t="n">
-        <v>-2.5570085</v>
+        <v>15.127127</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>86.359711</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>175</v>
       </c>
       <c r="C88" t="n">
-        <v>-124.44025</v>
+        <v>104.49794</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.3657784</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -3330,10 +3330,10 @@
         <v>175</v>
       </c>
       <c r="C89" t="n">
-        <v>-112.28645</v>
+        <v>-49.4753</v>
       </c>
       <c r="D89" t="n">
-        <v>-10.774576</v>
+        <v>3.6193305</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -3350,13 +3350,13 @@
         <v>175</v>
       </c>
       <c r="C90" t="n">
-        <v>-157.5</v>
+        <v>-17.026759</v>
       </c>
       <c r="D90" t="n">
-        <v>15.028582</v>
+        <v>-3.6193305</v>
       </c>
       <c r="E90" t="n">
-        <v>85.971131</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -3367,13 +3367,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>175</v>
+        <v>400</v>
       </c>
       <c r="C91" t="n">
-        <v>48.28218</v>
+        <v>-156.90546</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>-3.0071008</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -3387,13 +3387,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>175</v>
+        <v>400</v>
       </c>
       <c r="C92" t="n">
-        <v>-78.365567</v>
+        <v>-197.88703</v>
       </c>
       <c r="D92" t="n">
-        <v>3.6394731</v>
+        <v>-2.7466449</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
@@ -3407,13 +3407,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>175</v>
+        <v>400</v>
       </c>
       <c r="C93" t="n">
-        <v>-44.352253</v>
+        <v>-220.64367</v>
       </c>
       <c r="D93" t="n">
-        <v>-3.6394731</v>
+        <v>4.2315603</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -3430,10 +3430,10 @@
         <v>400</v>
       </c>
       <c r="C94" t="n">
-        <v>-168.09145</v>
+        <v>-261.62524</v>
       </c>
       <c r="D94" t="n">
-        <v>-2.9778413</v>
+        <v>4.4920162</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
@@ -3447,13 +3447,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="C95" t="n">
-        <v>-207.42352</v>
+        <v>-280.79375</v>
       </c>
       <c r="D95" t="n">
-        <v>-3.0226007</v>
+        <v>0.49269344</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
@@ -3467,13 +3467,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="C96" t="n">
-        <v>-234.90331</v>
+        <v>-96.75538400000001</v>
       </c>
       <c r="D96" t="n">
-        <v>4.3011049</v>
+        <v>0.18112299</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -3487,13 +3487,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="C97" t="n">
-        <v>-274.23539</v>
+        <v>-209.07601</v>
       </c>
       <c r="D97" t="n">
-        <v>4.2563455</v>
+        <v>0.23223754</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -3510,10 +3510,10 @@
         <v>500</v>
       </c>
       <c r="C98" t="n">
-        <v>-285.42865</v>
+        <v>-250.43626</v>
       </c>
       <c r="D98" t="n">
-        <v>0.18181982</v>
+        <v>1.5461749</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -3530,10 +3530,10 @@
         <v>500</v>
       </c>
       <c r="C99" t="n">
-        <v>-117.56611</v>
+        <v>-163.86976</v>
       </c>
       <c r="D99" t="n">
-        <v>0.50253949</v>
+        <v>1.3139374</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>500</v>
       </c>
       <c r="C100" t="n">
-        <v>-216.59751</v>
+        <v>-290.75538</v>
       </c>
       <c r="D100" t="n">
-        <v>0.22657925</v>
+        <v>0.25443467</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -3570,10 +3570,10 @@
         <v>500</v>
       </c>
       <c r="C101" t="n">
-        <v>-265.0614</v>
+        <v>-6.2274495</v>
       </c>
       <c r="D101" t="n">
-        <v>0.96680258</v>
+        <v>-0.086163723</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -3590,10 +3590,10 @@
         <v>500</v>
       </c>
       <c r="C102" t="n">
-        <v>-176.02616</v>
+        <v>-207.02175</v>
       </c>
       <c r="D102" t="n">
-        <v>0.74022332</v>
+        <v>-0.74202351</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -3610,10 +3610,10 @@
         <v>500</v>
       </c>
       <c r="C103" t="n">
-        <v>-311.56611</v>
+        <v>-207.02175</v>
       </c>
       <c r="D103" t="n">
-        <v>0.70594833</v>
+        <v>-0.74202351</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>500</v>
       </c>
       <c r="C104" t="n">
-        <v>2.8374551</v>
+        <v>258.27094</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.32674295</v>
+        <v>1.8384667</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -3650,10 +3650,10 @@
         <v>500</v>
       </c>
       <c r="C105" t="n">
-        <v>-219.24036</v>
+        <v>-251.28885</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.27489989</v>
+        <v>-0.6798024</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -3670,10 +3670,10 @@
         <v>500</v>
       </c>
       <c r="C106" t="n">
-        <v>-219.24036</v>
+        <v>9.306017000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.27489989</v>
+        <v>0.58397561</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -3690,10 +3690,10 @@
         <v>500</v>
       </c>
       <c r="C107" t="n">
-        <v>273.64327</v>
+        <v>-113.11146</v>
       </c>
       <c r="D107" t="n">
-        <v>1.58291</v>
+        <v>-0.367985</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
@@ -3710,10 +3710,10 @@
         <v>500</v>
       </c>
       <c r="C108" t="n">
-        <v>-278.25322</v>
+        <v>-138.17739</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.05071083</v>
+        <v>0.014531641</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -3730,10 +3730,10 @@
         <v>500</v>
       </c>
       <c r="C109" t="n">
-        <v>24.524567</v>
+        <v>-73.889556</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.12200421</v>
+        <v>0.39192761</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>500</v>
       </c>
       <c r="C110" t="n">
-        <v>-139.77675</v>
+        <v>-73.889556</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.035604991</v>
+        <v>0.39192761</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>500</v>
       </c>
       <c r="C111" t="n">
-        <v>-138.47648</v>
+        <v>-85.846992</v>
       </c>
       <c r="D111" t="n">
-        <v>0.062243692</v>
+        <v>0.50780488</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>500</v>
       </c>
       <c r="C112" t="n">
-        <v>-61.521397</v>
+        <v>-85.846992</v>
       </c>
       <c r="D112" t="n">
-        <v>0.13815888</v>
+        <v>0.50780488</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
@@ -3810,10 +3810,10 @@
         <v>500</v>
       </c>
       <c r="C113" t="n">
-        <v>-61.521397</v>
+        <v>-149.84699</v>
       </c>
       <c r="D113" t="n">
-        <v>0.13815888</v>
+        <v>0.27929268</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -3830,10 +3830,10 @@
         <v>500</v>
       </c>
       <c r="C114" t="n">
-        <v>-78.23771600000001</v>
+        <v>-149.84699</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.10609062</v>
+        <v>0.27929268</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -3850,10 +3850,10 @@
         <v>500</v>
       </c>
       <c r="C115" t="n">
-        <v>-78.23771600000001</v>
+        <v>-161.82261</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.10609062</v>
+        <v>-0.0094109676</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="C116" t="n">
-        <v>-142.23772</v>
+        <v>-54</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.05834984</v>
+        <v>0.50789628</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -3887,19 +3887,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="C117" t="n">
-        <v>-142.23772</v>
+        <v>22.5</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.05834984</v>
+        <v>-2.9528194</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>-8.866221400000001</v>
       </c>
     </row>
     <row r="118">
@@ -3907,13 +3907,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="C118" t="n">
-        <v>-161.52352</v>
+        <v>22.5</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.040310201</v>
+        <v>-2.9528194</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -3927,16 +3927,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="C119" t="n">
-        <v>-65.56299300000001</v>
+        <v>-36</v>
       </c>
       <c r="D119" t="n">
-        <v>1.2775695</v>
+        <v>15.806253</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>48.58184</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -3947,13 +3947,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="C120" t="n">
-        <v>50.266047</v>
+        <v>-36</v>
       </c>
       <c r="D120" t="n">
-        <v>-1.3697653</v>
+        <v>15.806253</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
@@ -3967,18 +3967,118 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>722</v>
+        <v>24</v>
       </c>
       <c r="C121" t="n">
-        <v>-65.56299300000001</v>
+        <v>21.6</v>
       </c>
       <c r="D121" t="n">
-        <v>0.11853738</v>
+        <v>-12.150289</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
+        <v>-30.459575</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>24</v>
+      </c>
+      <c r="C122" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-12.150289</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>60</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-54</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2.7369966</v>
+      </c>
+      <c r="E123" t="n">
+        <v>8.4007501</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>60</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-54</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2.7369966</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>50</v>
+      </c>
+      <c r="C125" t="n">
+        <v>45</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-2.9345119</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-7.3300021</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>50</v>
+      </c>
+      <c r="C126" t="n">
+        <v>45</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-2.9345119</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3993,7 +4093,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4018,10 +4118,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>117.73912</v>
+        <v>118.07035</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.57838736</v>
+        <v>-0.48798752</v>
       </c>
     </row>
     <row r="3">
@@ -4032,7 +4132,7 @@
         <v>120</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5810827200000001</v>
+        <v>-0.49067643</v>
       </c>
     </row>
     <row r="4">
@@ -4040,10 +4140,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>107.33019</v>
+        <v>107.74153</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3979185</v>
+        <v>-0.30762387</v>
       </c>
     </row>
     <row r="5">
@@ -4051,10 +4151,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>111.74986</v>
+        <v>113.31104</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.51838136</v>
+        <v>-0.42798669</v>
       </c>
     </row>
     <row r="6">
@@ -4062,10 +4162,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>108.20551</v>
+        <v>110.51548</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.54292338</v>
+        <v>-0.45252037</v>
       </c>
     </row>
     <row r="7">
@@ -4073,10 +4173,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>163.47901</v>
+        <v>156.57628</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.53980272</v>
+        <v>-0.44939643</v>
       </c>
     </row>
     <row r="8">
@@ -4087,7 +4187,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.40135034</v>
+        <v>-0.31091673</v>
       </c>
     </row>
     <row r="9">
@@ -4095,10 +4195,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>100.70762</v>
+        <v>102.23754</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.46793012</v>
+        <v>-0.37751262</v>
       </c>
     </row>
     <row r="10">
@@ -4106,10 +4206,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>104.99385</v>
+        <v>107.83346</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.39007536</v>
+        <v>-0.29969021</v>
       </c>
     </row>
     <row r="11">
@@ -4117,10 +4217,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>98.335426</v>
+        <v>102.69398</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.44372772</v>
+        <v>-0.35332143</v>
       </c>
     </row>
     <row r="12">
@@ -4128,10 +4228,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>102.5936</v>
+        <v>107.39902</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.25756844</v>
+        <v>-0.16719505</v>
       </c>
     </row>
     <row r="13">
@@ -4139,10 +4239,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>102.47021</v>
+        <v>106.75745</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.22677903</v>
+        <v>-0.13634239</v>
       </c>
     </row>
     <row r="14">
@@ -4150,10 +4250,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>103.46097</v>
+        <v>112.96933</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.12171671</v>
+        <v>-0.031283107</v>
       </c>
     </row>
     <row r="15">
@@ -4161,10 +4261,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>102.76361</v>
+        <v>104.66029</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2171056</v>
+        <v>-0.12680724</v>
       </c>
     </row>
     <row r="16">
@@ -4172,10 +4272,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>103.29122</v>
+        <v>100.97902</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.045760916</v>
+        <v>0.044362453</v>
       </c>
     </row>
     <row r="17">
@@ -4183,10 +4283,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>103.00244</v>
+        <v>100.81302</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.045804942</v>
+        <v>0.044388029</v>
       </c>
     </row>
     <row r="18">
@@ -4194,10 +4294,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>102.99051</v>
+        <v>100.38473</v>
       </c>
       <c r="C18" t="n">
-        <v>0.027057103</v>
+        <v>0.11714431</v>
       </c>
     </row>
     <row r="19">
@@ -4205,10 +4305,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>102.98495</v>
+        <v>100.18524</v>
       </c>
       <c r="C19" t="n">
-        <v>0.047323701</v>
+        <v>0.13736165</v>
       </c>
     </row>
     <row r="20">
@@ -4216,10 +4316,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>102.71541</v>
+        <v>99.467541</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.05619117</v>
+        <v>0.03414844</v>
       </c>
     </row>
     <row r="21">
@@ -4227,10 +4327,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>102.46582</v>
+        <v>98.297555</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.029022673</v>
+        <v>0.06144445</v>
       </c>
     </row>
     <row r="22">
@@ -4238,10 +4338,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>102.97978</v>
+        <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.057432686</v>
+        <v>0.14742489</v>
       </c>
     </row>
     <row r="23">
@@ -4249,10 +4349,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>102.984</v>
+        <v>100.15122</v>
       </c>
       <c r="C23" t="n">
-        <v>0.16930818</v>
+        <v>0.25933773</v>
       </c>
     </row>
     <row r="24">
@@ -4260,10 +4360,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>102.32855</v>
+        <v>97.65406400000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.090537255</v>
       </c>
     </row>
     <row r="25">
@@ -4271,10 +4371,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>104.83553</v>
+        <v>103.56468</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1804094</v>
+        <v>-0.090220552</v>
       </c>
     </row>
     <row r="26">
@@ -4282,10 +4382,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>104.6151</v>
+        <v>108.23957</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.6311299</v>
+        <v>-0.5406963</v>
       </c>
     </row>
     <row r="27">
@@ -4293,10 +4393,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>105.24672</v>
+        <v>109.39491</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.63462851</v>
+        <v>-0.54419491</v>
       </c>
     </row>
     <row r="28">
@@ -4304,10 +4404,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>101.90407</v>
+        <v>102.96058</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.43757534</v>
+        <v>-0.34714173</v>
       </c>
     </row>
     <row r="29">
@@ -4315,10 +4415,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>102.89386</v>
+        <v>105.16922</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.57048088</v>
+        <v>-0.48004727</v>
       </c>
     </row>
     <row r="30">
@@ -4326,10 +4426,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>101.8724</v>
+        <v>103.35164</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.59606058</v>
+        <v>-0.50562697</v>
       </c>
     </row>
     <row r="31">
@@ -4337,10 +4437,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>117.46598</v>
+        <v>131.62797</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.59334851</v>
+        <v>-0.50291491</v>
       </c>
     </row>
     <row r="32">
@@ -4351,7 +4451,7 @@
         <v>100</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.48704223</v>
+        <v>-0.39370935</v>
       </c>
     </row>
     <row r="33">
@@ -4362,7 +4462,7 @@
         <v>100</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.53939799</v>
+        <v>-0.44729756</v>
       </c>
     </row>
     <row r="34">
@@ -4370,10 +4470,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>100.9671</v>
+        <v>101.7088</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.44099053</v>
+        <v>-0.35055693</v>
       </c>
     </row>
     <row r="35">
@@ -4381,10 +4481,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>99.03289599999999</v>
+        <v>98.291196</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.49727351</v>
+        <v>-0.40683991</v>
       </c>
     </row>
     <row r="36">
@@ -4392,10 +4492,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>100.06628</v>
+        <v>100.12467</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.30819687</v>
+        <v>-0.21803562</v>
       </c>
     </row>
     <row r="37">
@@ -4403,10 +4503,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>100.14266</v>
+        <v>100.48432</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.27450821</v>
+        <v>-0.18465083</v>
       </c>
     </row>
     <row r="38">
@@ -4414,10 +4514,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>100.1714</v>
+        <v>100.55455</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.17338506</v>
+        <v>-0.083645044</v>
       </c>
     </row>
     <row r="39">
@@ -4425,10 +4525,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>100.04059</v>
+        <v>99.873187</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.26522206</v>
+        <v>-0.17496457</v>
       </c>
     </row>
     <row r="40">
@@ -4436,10 +4536,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>99.64985799999999</v>
+        <v>96</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.094716711</v>
+        <v>-0.0042831067</v>
       </c>
     </row>
     <row r="41">
@@ -4447,10 +4547,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>100.00449</v>
+        <v>99.519918</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.090392688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -4458,10 +4558,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>100.33378</v>
+        <v>103.81306</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.016620721</v>
+        <v>0.074553255</v>
       </c>
     </row>
     <row r="43">
@@ -4469,10 +4569,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>100.16071</v>
+        <v>101.83592</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0013497318</v>
+        <v>0.092991807</v>
       </c>
     </row>
     <row r="44">
@@ -4480,10 +4580,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>100.17893</v>
+        <v>100.34667</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.09429853000000001</v>
+        <v>-0.0045996385</v>
       </c>
     </row>
     <row r="45">
@@ -4491,10 +4591,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>100.33061</v>
+        <v>101.06558</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.061494915</v>
+        <v>0.027600676</v>
       </c>
     </row>
     <row r="46">
@@ -4505,7 +4605,7 @@
         <v>100</v>
       </c>
       <c r="C46" t="n">
-        <v>0.009326581299999999</v>
+        <v>0.10140332</v>
       </c>
     </row>
     <row r="47">
@@ -4513,10 +4613,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>100.1312</v>
+        <v>101.49878</v>
       </c>
       <c r="C47" t="n">
-        <v>0.12294267</v>
+        <v>0.21466457</v>
       </c>
     </row>
     <row r="48">
@@ -4524,10 +4624,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>100.41404</v>
+        <v>101.46098</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.029372927</v>
+        <v>0.059390849</v>
       </c>
     </row>
     <row r="49">
@@ -4535,10 +4635,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>100.51176</v>
+        <v>98.661399</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.22580972</v>
+        <v>-0.13537611</v>
       </c>
     </row>
     <row r="50">
@@ -4546,10 +4646,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>117.54236</v>
+        <v>117.52097</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.63343693</v>
+        <v>-0.50719739</v>
       </c>
     </row>
     <row r="51">
@@ -4560,7 +4660,7 @@
         <v>120</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.63688638</v>
+        <v>-0.50985848</v>
       </c>
     </row>
     <row r="52">
@@ -4568,10 +4668,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>106.33678</v>
+        <v>105.94225</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.4406833</v>
+        <v>-0.32728701</v>
       </c>
     </row>
     <row r="53">
@@ -4579,10 +4679,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>111.00525</v>
+        <v>110.99418</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.5728272599999999</v>
+        <v>-0.44721884</v>
       </c>
     </row>
     <row r="54">
@@ -4590,10 +4690,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>107.1351</v>
+        <v>107.13412</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.59834345</v>
+        <v>-0.47171657</v>
       </c>
     </row>
     <row r="55">
@@ -4601,10 +4701,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>167.30308</v>
+        <v>167.61325</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.59560638</v>
+        <v>-0.46857848</v>
       </c>
     </row>
     <row r="56">
@@ -4615,7 +4715,7 @@
         <v>100</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.5432604599999999</v>
+        <v>-0.33685388</v>
       </c>
     </row>
     <row r="57">
@@ -4626,7 +4726,7 @@
         <v>100</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.57271259</v>
+        <v>-0.40059763</v>
       </c>
     </row>
     <row r="58">
@@ -4634,10 +4734,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>103.63947</v>
+        <v>103.61933</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.44340941</v>
+        <v>-0.31896338</v>
       </c>
     </row>
     <row r="59">
@@ -4645,10 +4745,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>96.360527</v>
+        <v>96.380669</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.49953138</v>
+        <v>-0.37250348</v>
       </c>
     </row>
     <row r="60">
@@ -4656,10 +4756,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>100.66163</v>
+        <v>100.61223</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.30221259</v>
+        <v>-0.18716279</v>
       </c>
     </row>
     <row r="61">
@@ -4667,10 +4767,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>100.61687</v>
+        <v>100.87269</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.26917365</v>
+        <v>-0.15273828</v>
       </c>
     </row>
     <row r="62">
@@ -4678,10 +4778,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>100.84345</v>
+        <v>101.10492</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.16520684</v>
+        <v>-0.052381794</v>
       </c>
     </row>
     <row r="63">
@@ -4689,10 +4789,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>101.16417</v>
+        <v>100.79335</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.25283483</v>
+        <v>-0.14652553</v>
       </c>
     </row>
     <row r="64">
@@ -4700,10 +4800,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>102.19686</v>
+        <v>101.13395</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.068528453</v>
+        <v>0.023961477</v>
       </c>
     </row>
     <row r="65">
@@ -4711,10 +4811,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>101.87012</v>
+        <v>101.04779</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.06901082</v>
+        <v>0.025020144</v>
       </c>
     </row>
     <row r="66">
@@ -4722,10 +4822,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>101.81941</v>
+        <v>100.36798</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0033350181</v>
+        <v>0.090355245</v>
       </c>
     </row>
     <row r="67">
@@ -4733,10 +4833,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>101.7838</v>
+        <v>100</v>
       </c>
       <c r="C67" t="n">
-        <v>0.022903763</v>
+        <v>0.10619085</v>
       </c>
     </row>
     <row r="68">
@@ -4744,10 +4844,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>101.74812</v>
+        <v>101.63176</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.074651471</v>
+        <v>0.02287976</v>
       </c>
     </row>
     <row r="69">
@@ -4755,10 +4855,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>101.64202</v>
+        <v>102.13957</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.043356384</v>
+        <v>0.057218556</v>
       </c>
     </row>
     <row r="70">
@@ -4766,10 +4866,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>101.92196</v>
+        <v>100.39193</v>
       </c>
       <c r="C70" t="n">
-        <v>0.038899326</v>
+        <v>0.12540213</v>
       </c>
     </row>
     <row r="71">
@@ -4777,10 +4877,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>101.88165</v>
+        <v>100.38252</v>
       </c>
       <c r="C71" t="n">
-        <v>0.14873532</v>
+        <v>0.23544151</v>
       </c>
     </row>
     <row r="72">
@@ -4788,10 +4888,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>101.58367</v>
+        <v>102.41886</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.012064087</v>
+        <v>0.090184894</v>
       </c>
     </row>
     <row r="73">
@@ -4799,10 +4899,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>103.77977</v>
+        <v>102.97242</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.21082295</v>
+        <v>-0.11033941</v>
       </c>
     </row>
     <row r="74">
@@ -4810,10 +4910,65 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>101.70221</v>
+        <v>102.92676</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.0061634173</v>
+        <v>0.095044894</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>105.9134</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-0.32902923</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>80.193747</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-0.017783107</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>115.96335</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.082545255</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>97.263003</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.12123489</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>104.39549</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.082790849</v>
       </c>
     </row>
   </sheetData>

--- a/conejo/output_test.xlsx
+++ b/conejo/output_test.xlsx
@@ -521,7 +521,7 @@
         <v>76</v>
       </c>
       <c r="C8" t="n">
-        <v>6.9315311</v>
+        <v>5.5806428</v>
       </c>
     </row>
     <row r="9">
@@ -554,7 +554,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>12.251592</v>
       </c>
     </row>
     <row r="12">
@@ -565,7 +565,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>56.673581</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -708,7 +708,7 @@
         <v>400</v>
       </c>
       <c r="C25" t="n">
-        <v>387.49489</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26">
@@ -917,7 +917,7 @@
         <v>100</v>
       </c>
       <c r="C44" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -928,7 +928,7 @@
         <v>100</v>
       </c>
       <c r="C45" t="n">
-        <v>12.849525</v>
+        <v>79.928628</v>
       </c>
     </row>
     <row r="46">
@@ -1038,7 +1038,7 @@
         <v>155</v>
       </c>
       <c r="C55" t="n">
-        <v>148.53401</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56">
@@ -1071,7 +1071,7 @@
         <v>400</v>
       </c>
       <c r="C58" t="n">
-        <v>329.51646</v>
+        <v>400</v>
       </c>
     </row>
     <row r="59">
@@ -1258,7 +1258,7 @@
         <v>76</v>
       </c>
       <c r="C75" t="n">
-        <v>7.1697137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1269,7 +1269,7 @@
         <v>100</v>
       </c>
       <c r="C76" t="n">
-        <v>29.497941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1291,7 +1291,7 @@
         <v>100</v>
       </c>
       <c r="C78" t="n">
-        <v>100</v>
+        <v>69.239137</v>
       </c>
     </row>
     <row r="79">
@@ -1423,7 +1423,7 @@
         <v>400</v>
       </c>
       <c r="C90" t="n">
-        <v>343.33235</v>
+        <v>400</v>
       </c>
     </row>
     <row r="91">
@@ -1590,10 +1590,10 @@
         <v>175</v>
       </c>
       <c r="C2" t="n">
-        <v>19.206471</v>
+        <v>20.333635</v>
       </c>
       <c r="D2" t="n">
-        <v>1.9296547</v>
+        <v>2.5354471</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1610,10 +1610,10 @@
         <v>175</v>
       </c>
       <c r="C3" t="n">
-        <v>-85.480406</v>
+        <v>-86.698785</v>
       </c>
       <c r="D3" t="n">
-        <v>-10.328818</v>
+        <v>-11.561003</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1630,10 +1630,10 @@
         <v>175</v>
       </c>
       <c r="C4" t="n">
-        <v>-41.726066</v>
+        <v>-41.63485</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.5548624</v>
+        <v>-10.73651</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1650,10 +1650,10 @@
         <v>175</v>
       </c>
       <c r="C5" t="n">
-        <v>-49.361998</v>
+        <v>-49.585722</v>
       </c>
       <c r="D5" t="n">
-        <v>-6.6889609</v>
+        <v>-9.2793767</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>-21.5</v>
       </c>
       <c r="D6" t="n">
-        <v>36.576281</v>
+        <v>48.800509</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1690,10 +1690,10 @@
         <v>175</v>
       </c>
       <c r="C7" t="n">
-        <v>-6.6669349</v>
+        <v>-4.8082963</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09193752500000001</v>
+        <v>-2.7817863</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1710,10 +1710,10 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>-258.81347</v>
+        <v>-261.89049</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.1768436</v>
+        <v>-2.6388707</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1730,10 +1730,10 @@
         <v>175</v>
       </c>
       <c r="C9" t="n">
-        <v>-123.362</v>
+        <v>-123.58572</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.4775743</v>
+        <v>-7.5988597</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1750,10 +1750,10 @@
         <v>175</v>
       </c>
       <c r="C10" t="n">
-        <v>-112.72607</v>
+        <v>-112.63485</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.8215046</v>
+        <v>-11.115445</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>-157.5</v>
       </c>
       <c r="D11" t="n">
-        <v>11.620589</v>
+        <v>15.504329</v>
       </c>
       <c r="E11" t="n">
-        <v>65.502892</v>
+        <v>88.69224</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1790,10 +1790,10 @@
         <v>175</v>
       </c>
       <c r="C12" t="n">
-        <v>109.17358</v>
+        <v>83.556943</v>
       </c>
       <c r="D12" t="n">
-        <v>2.2375402</v>
+        <v>-0.26900328</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>175</v>
       </c>
       <c r="C13" t="n">
-        <v>-47.165093</v>
+        <v>-60.130019</v>
       </c>
       <c r="D13" t="n">
-        <v>5.5959246</v>
+        <v>3.3907669</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>175</v>
       </c>
       <c r="C14" t="n">
-        <v>-14.661327</v>
+        <v>-27.313038</v>
       </c>
       <c r="D14" t="n">
-        <v>0.45643815</v>
+        <v>-4.1183988</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1850,10 +1850,10 @@
         <v>400</v>
       </c>
       <c r="C15" t="n">
-        <v>-157.73234</v>
+        <v>-162.98913</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.43444711</v>
+        <v>-3.1245487</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1870,10 +1870,10 @@
         <v>400</v>
       </c>
       <c r="C16" t="n">
-        <v>-194.46169</v>
+        <v>-200.5349</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.0760161</v>
+        <v>-3.250397</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1890,10 +1890,10 @@
         <v>400</v>
       </c>
       <c r="C17" t="n">
-        <v>-221.57902</v>
+        <v>-227.45106</v>
       </c>
       <c r="D17" t="n">
-        <v>4.7050393</v>
+        <v>4.384617</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1910,10 +1910,10 @@
         <v>400</v>
       </c>
       <c r="C18" t="n">
-        <v>-258.30837</v>
+        <v>-264.99683</v>
       </c>
       <c r="D18" t="n">
-        <v>4.0634703</v>
+        <v>4.2587687</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1930,10 +1930,10 @@
         <v>500</v>
       </c>
       <c r="C19" t="n">
-        <v>-283.14989</v>
+        <v>-291.80213</v>
       </c>
       <c r="D19" t="n">
-        <v>5.5703156</v>
+        <v>0.12494801</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>500</v>
       </c>
       <c r="C20" t="n">
-        <v>-96.161467</v>
+        <v>-98.63806599999999</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.7387301</v>
+        <v>0.52070462</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>500</v>
       </c>
       <c r="C21" t="n">
-        <v>-218.87352</v>
+        <v>-226.09704</v>
       </c>
       <c r="D21" t="n">
-        <v>6.2118846</v>
+        <v>0.25079626</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1990,10 +1990,10 @@
         <v>500</v>
       </c>
       <c r="C22" t="n">
-        <v>-233.89655</v>
+        <v>-239.43469</v>
       </c>
       <c r="D22" t="n">
-        <v>-9.103385100000001</v>
+        <v>0.6576118399999999</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2010,10 +2010,10 @@
         <v>500</v>
       </c>
       <c r="C23" t="n">
-        <v>-140.0234</v>
+        <v>-142.21273</v>
       </c>
       <c r="D23" t="n">
-        <v>-15.31527</v>
+        <v>0.40681558</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2030,10 +2030,10 @@
         <v>500</v>
       </c>
       <c r="C24" t="n">
-        <v>-290.16147</v>
+        <v>-292.63807</v>
       </c>
       <c r="D24" t="n">
-        <v>-3.8472637</v>
+        <v>0.7314660200000001</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>500</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1504448</v>
+        <v>-3.2125197</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1659946</v>
+        <v>-0.38170698</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2070,10 +2070,10 @@
         <v>500</v>
       </c>
       <c r="C26" t="n">
-        <v>-210.33151</v>
+        <v>-210.33898</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.9790185300000001</v>
+        <v>-0.21956352</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>500</v>
       </c>
       <c r="C27" t="n">
-        <v>-210.33151</v>
+        <v>-210.33898</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.9790185300000001</v>
+        <v>-0.21956352</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2110,10 +2110,10 @@
         <v>500</v>
       </c>
       <c r="C28" t="n">
-        <v>258.81347</v>
+        <v>261.89049</v>
       </c>
       <c r="D28" t="n">
-        <v>2.5856651</v>
+        <v>1.6335867</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2130,10 +2130,10 @@
         <v>500</v>
       </c>
       <c r="C29" t="n">
-        <v>-279.83186</v>
+        <v>-278.78457</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.42829748</v>
+        <v>0.08541646899999999</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2150,10 +2150,10 @@
         <v>500</v>
       </c>
       <c r="C30" t="n">
-        <v>44.519951</v>
+        <v>37.933983</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.3454831</v>
+        <v>-0.30684004</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2170,10 +2170,10 @@
         <v>500</v>
       </c>
       <c r="C31" t="n">
-        <v>-144.40956</v>
+        <v>-143.50365</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.19948779</v>
+        <v>0.039784363</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2190,10 +2190,10 @@
         <v>500</v>
       </c>
       <c r="C32" t="n">
-        <v>-135.4223</v>
+        <v>-135.28092</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.23350449</v>
+        <v>0.046568402</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>500</v>
       </c>
       <c r="C33" t="n">
-        <v>-38.704781</v>
+        <v>-38.251826</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.18523866</v>
+        <v>0.036942623</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>500</v>
       </c>
       <c r="C34" t="n">
-        <v>-38.704781</v>
+        <v>-38.251826</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.18523866</v>
+        <v>0.036942623</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>500</v>
       </c>
       <c r="C35" t="n">
-        <v>-68.240025</v>
+        <v>-71.533008</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.1699853</v>
+        <v>-0.26681743</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -2270,10 +2270,10 @@
         <v>500</v>
       </c>
       <c r="C36" t="n">
-        <v>-68.240025</v>
+        <v>-71.533008</v>
       </c>
       <c r="D36" t="n">
-        <v>-1.1699853</v>
+        <v>-0.26681743</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>500</v>
       </c>
       <c r="C37" t="n">
-        <v>-132.24002</v>
+        <v>-135.53301</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.64349194</v>
+        <v>-0.14674958</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>500</v>
       </c>
       <c r="C38" t="n">
-        <v>-132.24002</v>
+        <v>-135.53301</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.64349194</v>
+        <v>-0.14674958</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -2330,10 +2330,10 @@
         <v>500</v>
       </c>
       <c r="C39" t="n">
-        <v>-164.5777</v>
+        <v>-164.71908</v>
       </c>
       <c r="D39" t="n">
-        <v>0.15122196</v>
+        <v>-0.030158584</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -2353,7 +2353,7 @@
         <v>24.990052</v>
       </c>
       <c r="D40" t="n">
-        <v>1.1553358</v>
+        <v>0.36713513</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -2373,7 +2373,7 @@
         <v>-91.732021</v>
       </c>
       <c r="D41" t="n">
-        <v>-5.2789907</v>
+        <v>-1.8189607</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>-41.25803</v>
       </c>
       <c r="D42" t="n">
-        <v>-4.8879313</v>
+        <v>-1.496278</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -2413,7 +2413,7 @@
         <v>-50.509948</v>
       </c>
       <c r="D43" t="n">
-        <v>-4.2256939</v>
+        <v>-1.3083064</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>-21.5</v>
       </c>
       <c r="D44" t="n">
-        <v>22.233056</v>
+        <v>7.012908</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>2.8699097</v>
       </c>
       <c r="D45" t="n">
-        <v>-1.2517782</v>
+        <v>-0.19357947</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -2470,10 +2470,10 @@
         <v>400</v>
       </c>
       <c r="C46" t="n">
-        <v>-252.10193</v>
+        <v>-270.90728</v>
       </c>
       <c r="D46" t="n">
-        <v>-4.2991834</v>
+        <v>-0.21706095</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>-124.50995</v>
       </c>
       <c r="D47" t="n">
-        <v>-3.4604108</v>
+        <v>-1.071369</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -2513,7 +2513,7 @@
         <v>-112.25803</v>
       </c>
       <c r="D48" t="n">
-        <v>-5.0604465</v>
+        <v>-1.5490878</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -2533,10 +2533,10 @@
         <v>-157.5</v>
       </c>
       <c r="D49" t="n">
-        <v>7.0636272</v>
+        <v>2.2280593</v>
       </c>
       <c r="E49" t="n">
-        <v>40.400397</v>
+        <v>12.653468</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>175</v>
       </c>
       <c r="C50" t="n">
-        <v>87.849525</v>
+        <v>54.928628</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -2570,10 +2570,10 @@
         <v>175</v>
       </c>
       <c r="C51" t="n">
-        <v>-58.630686</v>
+        <v>-75.09113499999999</v>
       </c>
       <c r="D51" t="n">
-        <v>1.7088044</v>
+        <v>0.5164128</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -2590,10 +2590,10 @@
         <v>175</v>
       </c>
       <c r="C52" t="n">
-        <v>-24.519789</v>
+        <v>-40.980238</v>
       </c>
       <c r="D52" t="n">
-        <v>-1.7088044</v>
+        <v>-0.5164128</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -2610,10 +2610,10 @@
         <v>400</v>
       </c>
       <c r="C53" t="n">
-        <v>-157.76346</v>
+        <v>-166.80027</v>
       </c>
       <c r="D53" t="n">
-        <v>-1.5841386</v>
+        <v>-0.37446351</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -2630,10 +2630,10 @@
         <v>400</v>
       </c>
       <c r="C54" t="n">
-        <v>-197.50726</v>
+        <v>-204.9309</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.2244799</v>
+        <v>-0.36461625</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>400</v>
       </c>
       <c r="C55" t="n">
-        <v>-224.76701</v>
+        <v>-233.80382</v>
       </c>
       <c r="D55" t="n">
-        <v>1.8334702</v>
+        <v>0.6583621</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -2670,10 +2670,10 @@
         <v>400</v>
       </c>
       <c r="C56" t="n">
-        <v>-264.51081</v>
+        <v>-271.93445</v>
       </c>
       <c r="D56" t="n">
-        <v>2.1931289</v>
+        <v>0.66820936</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -2690,10 +2690,10 @@
         <v>500</v>
       </c>
       <c r="C57" t="n">
-        <v>-279.98036</v>
+        <v>-282.44193</v>
       </c>
       <c r="D57" t="n">
-        <v>0.42987981</v>
+        <v>0.059913155</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         <v>500</v>
       </c>
       <c r="C58" t="n">
-        <v>-102.55012</v>
+        <v>-118.16215</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.25147907</v>
+        <v>0.089525284</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>500</v>
       </c>
       <c r="C59" t="n">
-        <v>-210.42871</v>
+        <v>-215.71332</v>
       </c>
       <c r="D59" t="n">
-        <v>0.070221067</v>
+        <v>0.050065896</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -2750,10 +2750,10 @@
         <v>500</v>
       </c>
       <c r="C60" t="n">
-        <v>-251.58936</v>
+        <v>-261.15203</v>
       </c>
       <c r="D60" t="n">
-        <v>0.97665391</v>
+        <v>0.24940293</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -2770,10 +2770,10 @@
         <v>500</v>
       </c>
       <c r="C61" t="n">
-        <v>-164.40907</v>
+        <v>-172.15526</v>
       </c>
       <c r="D61" t="n">
-        <v>0.90643285</v>
+        <v>0.19933703</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>500</v>
       </c>
       <c r="C62" t="n">
-        <v>-296.55012</v>
+        <v>-312.16215</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.35326822</v>
+        <v>0.12576171</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -2810,10 +2810,10 @@
         <v>500</v>
       </c>
       <c r="C63" t="n">
-        <v>-25.194745</v>
+        <v>-12.158259</v>
       </c>
       <c r="D63" t="n">
-        <v>3.5199185</v>
+        <v>-0.0013239695</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -2830,10 +2830,10 @@
         <v>500</v>
       </c>
       <c r="C64" t="n">
-        <v>-215.68659</v>
+        <v>-235.21773</v>
       </c>
       <c r="D64" t="n">
-        <v>4</v>
+        <v>0.015821756</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -2850,10 +2850,10 @@
         <v>500</v>
       </c>
       <c r="C65" t="n">
-        <v>-215.68659</v>
+        <v>-235.21773</v>
       </c>
       <c r="D65" t="n">
-        <v>4</v>
+        <v>0.015821756</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         <v>500</v>
       </c>
       <c r="C66" t="n">
-        <v>252.10193</v>
+        <v>270.90728</v>
       </c>
       <c r="D66" t="n">
-        <v>2.6613992</v>
+        <v>0.13437106</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -2890,10 +2890,10 @@
         <v>500</v>
       </c>
       <c r="C67" t="n">
-        <v>-286.74329</v>
+        <v>-303.8511</v>
       </c>
       <c r="D67" t="n">
-        <v>4.2931428</v>
+        <v>0.032228057</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -2910,10 +2910,10 @@
         <v>500</v>
       </c>
       <c r="C68" t="n">
-        <v>19.998428</v>
+        <v>34.530689</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8267477600000001</v>
+        <v>0.018725063</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>500</v>
       </c>
       <c r="C69" t="n">
-        <v>-131.70395</v>
+        <v>-158.88333</v>
       </c>
       <c r="D69" t="n">
-        <v>-1.9771429</v>
+        <v>-0.0078204681</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -2950,10 +2950,10 @@
         <v>500</v>
       </c>
       <c r="C70" t="n">
-        <v>-133.43934</v>
+        <v>-137.68121</v>
       </c>
       <c r="D70" t="n">
-        <v>-2.3142857</v>
+        <v>-0.009154016100000001</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -2970,10 +2970,10 @@
         <v>500</v>
       </c>
       <c r="C71" t="n">
-        <v>-32.351973</v>
+        <v>-45.941663</v>
       </c>
       <c r="D71" t="n">
-        <v>-1.8359184</v>
+        <v>-0.0072618632</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -2990,10 +2990,10 @@
         <v>500</v>
       </c>
       <c r="C72" t="n">
-        <v>-32.351973</v>
+        <v>-45.941663</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.8359184</v>
+        <v>-0.0072618632</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -3010,10 +3010,10 @@
         <v>500</v>
       </c>
       <c r="C73" t="n">
-        <v>-80.50078600000001</v>
+        <v>-73.234656</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7189111</v>
+        <v>0.016282663</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -3030,10 +3030,10 @@
         <v>500</v>
       </c>
       <c r="C74" t="n">
-        <v>-80.50078600000001</v>
+        <v>-73.234656</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7189111</v>
+        <v>0.016282663</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -3050,10 +3050,10 @@
         <v>500</v>
       </c>
       <c r="C75" t="n">
-        <v>-144.50079</v>
+        <v>-137.23466</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3954011</v>
+        <v>0.0089554649</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
         <v>500</v>
       </c>
       <c r="C76" t="n">
-        <v>-144.50079</v>
+        <v>-137.23466</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3954011</v>
+        <v>0.0089554649</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -3090,10 +3090,10 @@
         <v>500</v>
       </c>
       <c r="C77" t="n">
-        <v>-166.56066</v>
+        <v>-162.31879</v>
       </c>
       <c r="D77" t="n">
-        <v>1.4987755</v>
+        <v>0.0059283152</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -3110,10 +3110,10 @@
         <v>175</v>
       </c>
       <c r="C78" t="n">
-        <v>19.007735</v>
+        <v>24.990052</v>
       </c>
       <c r="D78" t="n">
-        <v>2.4790319</v>
+        <v>1.2938696</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -3130,10 +3130,10 @@
         <v>175</v>
       </c>
       <c r="C79" t="n">
-        <v>-85.265586</v>
+        <v>-91.732021</v>
       </c>
       <c r="D79" t="n">
-        <v>-11.57872</v>
+        <v>-5.8913638</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -3150,10 +3150,10 @@
         <v>175</v>
       </c>
       <c r="C80" t="n">
-        <v>-41.742149</v>
+        <v>-41.25803</v>
       </c>
       <c r="D80" t="n">
-        <v>-10.386852</v>
+        <v>-5.4823388</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -3170,10 +3170,10 @@
         <v>175</v>
       </c>
       <c r="C81" t="n">
-        <v>-49.322551</v>
+        <v>-50.509948</v>
       </c>
       <c r="D81" t="n">
-        <v>-9.0058226</v>
+        <v>-4.7374183</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>-21.5</v>
       </c>
       <c r="D82" t="n">
-        <v>47.613253</v>
+        <v>24.906579</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>175</v>
       </c>
       <c r="C83" t="n">
-        <v>-6.9946419</v>
+        <v>2.8699097</v>
       </c>
       <c r="D83" t="n">
-        <v>-2.322918</v>
+        <v>-1.4316455</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -3230,10 +3230,10 @@
         <v>400</v>
       </c>
       <c r="C84" t="n">
-        <v>-258.27094</v>
+        <v>-274.60193</v>
       </c>
       <c r="D84" t="n">
-        <v>-2.9698308</v>
+        <v>-1.3348037</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -3250,10 +3250,10 @@
         <v>175</v>
       </c>
       <c r="C85" t="n">
-        <v>-123.32255</v>
+        <v>-124.50995</v>
       </c>
       <c r="D85" t="n">
-        <v>-7.3748469</v>
+        <v>-3.8794607</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -3270,10 +3270,10 @@
         <v>175</v>
       </c>
       <c r="C86" t="n">
-        <v>-112.74215</v>
+        <v>-112.25803</v>
       </c>
       <c r="D86" t="n">
-        <v>-10.753447</v>
+        <v>-5.6758331</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -3293,10 +3293,10 @@
         <v>-157.5</v>
       </c>
       <c r="D87" t="n">
-        <v>15.127127</v>
+        <v>7.9130277</v>
       </c>
       <c r="E87" t="n">
-        <v>86.359711</v>
+        <v>45.271648</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>175</v>
       </c>
       <c r="C88" t="n">
-        <v>104.49794</v>
+        <v>44.239137</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -3330,10 +3330,10 @@
         <v>175</v>
       </c>
       <c r="C89" t="n">
-        <v>-49.4753</v>
+        <v>-80.43588</v>
       </c>
       <c r="D89" t="n">
-        <v>3.6193305</v>
+        <v>1.9175813</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -3350,10 +3350,10 @@
         <v>175</v>
       </c>
       <c r="C90" t="n">
-        <v>-17.026759</v>
+        <v>-46.324983</v>
       </c>
       <c r="D90" t="n">
-        <v>-3.6193305</v>
+        <v>-1.9175813</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -3370,10 +3370,10 @@
         <v>400</v>
       </c>
       <c r="C91" t="n">
-        <v>-156.90546</v>
+        <v>-168.8819</v>
       </c>
       <c r="D91" t="n">
-        <v>-3.0071008</v>
+        <v>-1.5676448</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>400</v>
       </c>
       <c r="C92" t="n">
-        <v>-197.88703</v>
+        <v>-208.19402</v>
       </c>
       <c r="D92" t="n">
-        <v>-2.7466449</v>
+        <v>-1.6001159</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
@@ -3410,10 +3410,10 @@
         <v>400</v>
       </c>
       <c r="C93" t="n">
-        <v>-220.64367</v>
+        <v>-235.88545</v>
       </c>
       <c r="D93" t="n">
-        <v>4.2315603</v>
+        <v>2.2675178</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -3430,10 +3430,10 @@
         <v>400</v>
       </c>
       <c r="C94" t="n">
-        <v>-261.62524</v>
+        <v>-275.19757</v>
       </c>
       <c r="D94" t="n">
-        <v>4.4920162</v>
+        <v>2.2350466</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
@@ -3450,10 +3450,10 @@
         <v>500</v>
       </c>
       <c r="C95" t="n">
-        <v>-280.79375</v>
+        <v>-285.9301</v>
       </c>
       <c r="D95" t="n">
-        <v>0.49269344</v>
+        <v>0.08670847</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
@@ -3470,10 +3470,10 @@
         <v>500</v>
       </c>
       <c r="C96" t="n">
-        <v>-96.75538400000001</v>
+        <v>-118.83724</v>
       </c>
       <c r="D96" t="n">
-        <v>0.18112299</v>
+        <v>0.27406659</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>500</v>
       </c>
       <c r="C97" t="n">
-        <v>-209.07601</v>
+        <v>-217.1339</v>
       </c>
       <c r="D97" t="n">
-        <v>0.23223754</v>
+        <v>0.1191796</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -3510,10 +3510,10 @@
         <v>500</v>
       </c>
       <c r="C98" t="n">
-        <v>-250.43626</v>
+        <v>-266.25768</v>
       </c>
       <c r="D98" t="n">
-        <v>1.5461749</v>
+        <v>0.49235173</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -3530,10 +3530,10 @@
         <v>500</v>
       </c>
       <c r="C99" t="n">
-        <v>-163.86976</v>
+        <v>-177.064</v>
       </c>
       <c r="D99" t="n">
-        <v>1.3139374</v>
+        <v>0.37317213</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>500</v>
       </c>
       <c r="C100" t="n">
-        <v>-290.75538</v>
+        <v>-312.83724</v>
       </c>
       <c r="D100" t="n">
-        <v>0.25443467</v>
+        <v>0.38499831</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -3570,10 +3570,10 @@
         <v>500</v>
       </c>
       <c r="C101" t="n">
-        <v>-6.2274495</v>
+        <v>3.1023958</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.086163723</v>
+        <v>-0.17911456</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -3590,10 +3590,10 @@
         <v>500</v>
       </c>
       <c r="C102" t="n">
-        <v>-207.02175</v>
+        <v>-219.85216</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.74202351</v>
+        <v>-0.13118207</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -3610,10 +3610,10 @@
         <v>500</v>
       </c>
       <c r="C103" t="n">
-        <v>-207.02175</v>
+        <v>-219.85216</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.74202351</v>
+        <v>-0.13118207</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>500</v>
       </c>
       <c r="C104" t="n">
-        <v>258.27094</v>
+        <v>274.60193</v>
       </c>
       <c r="D104" t="n">
-        <v>1.8384667</v>
+        <v>0.82630708</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -3650,10 +3650,10 @@
         <v>500</v>
       </c>
       <c r="C105" t="n">
-        <v>-251.28885</v>
+        <v>-279.51907</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.6798024</v>
+        <v>-0.0083760876</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -3670,10 +3670,10 @@
         <v>500</v>
       </c>
       <c r="C106" t="n">
-        <v>9.306017000000001</v>
+        <v>24.784226</v>
       </c>
       <c r="D106" t="n">
-        <v>0.58397561</v>
+        <v>-0.084837758</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -3690,10 +3690,10 @@
         <v>500</v>
       </c>
       <c r="C107" t="n">
-        <v>-113.11146</v>
+        <v>-141.03352</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.367985</v>
+        <v>-0.009066964</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
@@ -3710,10 +3710,10 @@
         <v>500</v>
       </c>
       <c r="C108" t="n">
-        <v>-138.17739</v>
+        <v>-138.48555</v>
       </c>
       <c r="D108" t="n">
-        <v>0.014531641</v>
+        <v>0.034175722</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -3730,10 +3730,10 @@
         <v>500</v>
       </c>
       <c r="C109" t="n">
-        <v>-73.889556</v>
+        <v>-60.90506</v>
       </c>
       <c r="D109" t="n">
-        <v>0.39192761</v>
+        <v>0.065375535</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>500</v>
       </c>
       <c r="C110" t="n">
-        <v>-73.889556</v>
+        <v>-60.90506</v>
       </c>
       <c r="D110" t="n">
-        <v>0.39192761</v>
+        <v>0.065375535</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>500</v>
       </c>
       <c r="C111" t="n">
-        <v>-85.846992</v>
+        <v>-78.10788700000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.50780488</v>
+        <v>-0.073771964</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>500</v>
       </c>
       <c r="C112" t="n">
-        <v>-85.846992</v>
+        <v>-78.10788700000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.50780488</v>
+        <v>-0.073771964</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
@@ -3810,10 +3810,10 @@
         <v>500</v>
       </c>
       <c r="C113" t="n">
-        <v>-149.84699</v>
+        <v>-142.10789</v>
       </c>
       <c r="D113" t="n">
-        <v>0.27929268</v>
+        <v>-0.04057458</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -3830,10 +3830,10 @@
         <v>500</v>
       </c>
       <c r="C114" t="n">
-        <v>-149.84699</v>
+        <v>-142.10789</v>
       </c>
       <c r="D114" t="n">
-        <v>0.27929268</v>
+        <v>-0.04057458</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -3850,10 +3850,10 @@
         <v>500</v>
       </c>
       <c r="C115" t="n">
-        <v>-161.82261</v>
+        <v>-161.51445</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.0094109676</v>
+        <v>-0.022132849</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -3870,10 +3870,10 @@
         <v>722</v>
       </c>
       <c r="C116" t="n">
-        <v>-54</v>
+        <v>-67.537462</v>
       </c>
       <c r="D116" t="n">
-        <v>0.50789628</v>
+        <v>0.051088748</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -3887,19 +3887,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="C117" t="n">
-        <v>22.5</v>
+        <v>3.6946489</v>
       </c>
       <c r="D117" t="n">
-        <v>-2.9528194</v>
+        <v>0.35499614</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>-8.866221400000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -3907,13 +3907,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="C118" t="n">
-        <v>22.5</v>
+        <v>-3.6946489</v>
       </c>
       <c r="D118" t="n">
-        <v>-2.9528194</v>
+        <v>-0.35499614</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -3927,16 +3927,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="C119" t="n">
-        <v>-36</v>
+        <v>-49.686438</v>
       </c>
       <c r="D119" t="n">
-        <v>15.806253</v>
+        <v>0.11819866</v>
       </c>
       <c r="E119" t="n">
-        <v>48.58184</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -3947,13 +3947,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="C120" t="n">
-        <v>-36</v>
+        <v>49.686438</v>
       </c>
       <c r="D120" t="n">
-        <v>15.806253</v>
+        <v>-0.11819866</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
@@ -3967,19 +3967,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="C121" t="n">
-        <v>21.6</v>
+        <v>7.2865617</v>
       </c>
       <c r="D121" t="n">
-        <v>-12.150289</v>
+        <v>-0.069757085</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>-30.459575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -3987,13 +3987,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="C122" t="n">
-        <v>21.6</v>
+        <v>-7.2865617</v>
       </c>
       <c r="D122" t="n">
-        <v>-12.150289</v>
+        <v>0.069757085</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
@@ -4007,16 +4007,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="C123" t="n">
-        <v>-54</v>
+        <v>-67.537462</v>
       </c>
       <c r="D123" t="n">
-        <v>2.7369966</v>
+        <v>0.27531159</v>
       </c>
       <c r="E123" t="n">
-        <v>8.4007501</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="C124" t="n">
-        <v>-54</v>
+        <v>67.537462</v>
       </c>
       <c r="D124" t="n">
-        <v>2.7369966</v>
+        <v>-0.27531159</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
@@ -4047,19 +4047,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="C125" t="n">
-        <v>45</v>
+        <v>47.776599</v>
       </c>
       <c r="D125" t="n">
-        <v>-2.9345119</v>
+        <v>-0.29517943</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>-7.3300021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -4067,13 +4067,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="C126" t="n">
-        <v>45</v>
+        <v>-47.776599</v>
       </c>
       <c r="D126" t="n">
-        <v>-2.9345119</v>
+        <v>0.29517943</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
@@ -4118,10 +4118,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>118.07035</v>
+        <v>117.46455</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.48798752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4132,7 +4132,7 @@
         <v>120</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.49067643</v>
+        <v>-0.0028467089</v>
       </c>
     </row>
     <row r="4">
@@ -4140,10 +4140,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>107.74153</v>
+        <v>105.90355</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.30762387</v>
+        <v>0.18293444</v>
       </c>
     </row>
     <row r="5">
@@ -4151,10 +4151,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>113.31104</v>
+        <v>110.72062</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.42798669</v>
+        <v>0.060127158</v>
       </c>
     </row>
     <row r="6">
@@ -4162,10 +4162,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>110.51548</v>
+        <v>106.72804</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.45252037</v>
+        <v>0.035389623</v>
       </c>
     </row>
     <row r="7">
@@ -4173,10 +4173,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>156.57628</v>
+        <v>168.80051</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.44939643</v>
+        <v>0.038433291</v>
       </c>
     </row>
     <row r="8">
@@ -4187,7 +4187,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.31091673</v>
+        <v>0.14041151</v>
       </c>
     </row>
     <row r="9">
@@ -4195,10 +4195,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>102.23754</v>
+        <v>99.730997</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.37751262</v>
+        <v>0.089441778</v>
       </c>
     </row>
     <row r="10">
@@ -4206,10 +4206,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>107.83346</v>
+        <v>103.12176</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.29969021</v>
+        <v>0.18865631</v>
       </c>
     </row>
     <row r="11">
@@ -4217,10 +4217,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>102.69398</v>
+        <v>95.61259800000001</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.35332143</v>
+        <v>0.13450829</v>
       </c>
     </row>
     <row r="12">
@@ -4228,10 +4228,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>107.39902</v>
+        <v>99.997215</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.16719505</v>
+        <v>0.32556718</v>
       </c>
     </row>
     <row r="13">
@@ -4239,10 +4239,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>106.75745</v>
+        <v>99.87136700000001</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.13634239</v>
+        <v>0.35710563</v>
       </c>
     </row>
     <row r="14">
@@ -4250,10 +4250,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>112.96933</v>
+        <v>100.12216</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.031283107</v>
+        <v>0.4656322</v>
       </c>
     </row>
     <row r="15">
@@ -4261,10 +4261,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>104.66029</v>
+        <v>100.51792</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.12680724</v>
+        <v>0.36699517</v>
       </c>
     </row>
     <row r="16">
@@ -4272,10 +4272,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>100.97902</v>
+        <v>101.63109</v>
       </c>
       <c r="C16" t="n">
-        <v>0.044362453</v>
+        <v>0.5391055</v>
       </c>
     </row>
     <row r="17">
@@ -4283,10 +4283,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>100.81302</v>
+        <v>101.24939</v>
       </c>
       <c r="C17" t="n">
-        <v>0.044388029</v>
+        <v>0.53965163</v>
       </c>
     </row>
     <row r="18">
@@ -4294,10 +4294,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>100.38473</v>
+        <v>101.3348</v>
       </c>
       <c r="C18" t="n">
-        <v>0.11714431</v>
+        <v>0.61213562</v>
       </c>
     </row>
     <row r="19">
@@ -4305,10 +4305,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>100.18524</v>
+        <v>101.37459</v>
       </c>
       <c r="C19" t="n">
-        <v>0.13736165</v>
+        <v>0.6322261300000001</v>
       </c>
     </row>
     <row r="20">
@@ -4316,10 +4316,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>99.467541</v>
+        <v>100.94255</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03414844</v>
+        <v>0.53092681</v>
       </c>
     </row>
     <row r="21">
@@ -4327,10 +4327,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>98.297555</v>
+        <v>100.67573</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06144445</v>
+        <v>0.55954002</v>
       </c>
     </row>
     <row r="22">
@@ -4338,10 +4338,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>100</v>
+        <v>101.41153</v>
       </c>
       <c r="C22" t="n">
-        <v>0.14742489</v>
+        <v>0.6421716</v>
       </c>
     </row>
     <row r="23">
@@ -4349,10 +4349,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>100.15122</v>
+        <v>101.38137</v>
       </c>
       <c r="C23" t="n">
-        <v>0.25933773</v>
+        <v>0.75418058</v>
       </c>
     </row>
     <row r="24">
@@ -4360,10 +4360,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>97.65406400000001</v>
+        <v>100.52898</v>
       </c>
       <c r="C24" t="n">
-        <v>0.090537255</v>
+        <v>0.58935728</v>
       </c>
     </row>
     <row r="25">
@@ -4371,10 +4371,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>103.56468</v>
+        <v>103.26468</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.090220552</v>
+        <v>0.40292245</v>
       </c>
     </row>
     <row r="26">
@@ -4382,10 +4382,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>108.23957</v>
+        <v>102.52895</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.5406963</v>
+        <v>-0.059091437</v>
       </c>
     </row>
     <row r="27">
@@ -4393,10 +4393,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>109.39491</v>
+        <v>102.89609</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.54419491</v>
+        <v>-0.062590044</v>
       </c>
     </row>
     <row r="28">
@@ -4404,10 +4404,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>102.96058</v>
+        <v>100.70999</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.34714173</v>
+        <v>0.13446313</v>
       </c>
     </row>
     <row r="29">
@@ -4415,10 +4415,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>105.16922</v>
+        <v>101.58778</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.48004727</v>
+        <v>0.00155759</v>
       </c>
     </row>
     <row r="30">
@@ -4426,10 +4426,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>103.35164</v>
+        <v>101.03268</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.50562697</v>
+        <v>-0.024022111</v>
       </c>
     </row>
     <row r="31">
@@ -4437,10 +4437,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>131.62797</v>
+        <v>109.909</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.50291491</v>
+        <v>-0.021310044</v>
       </c>
     </row>
     <row r="32">
@@ -4451,7 +4451,7 @@
         <v>100</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.39370935</v>
+        <v>0.040654027</v>
       </c>
     </row>
     <row r="33">
@@ -4462,7 +4462,7 @@
         <v>100</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.44729756</v>
+        <v>0.007147564</v>
       </c>
     </row>
     <row r="34">
@@ -4470,10 +4470,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>101.7088</v>
+        <v>100.51641</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.35055693</v>
+        <v>0.13104794</v>
       </c>
     </row>
     <row r="35">
@@ -4481,10 +4481,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>98.291196</v>
+        <v>99.483587</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.40683991</v>
+        <v>0.07476495599999999</v>
       </c>
     </row>
     <row r="36">
@@ -4492,10 +4492,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>100.12467</v>
+        <v>100.14195</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.21803562</v>
+        <v>0.27116016</v>
       </c>
     </row>
     <row r="37">
@@ -4503,10 +4503,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>100.48432</v>
+        <v>100.1518</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.18465083</v>
+        <v>0.30318989</v>
       </c>
     </row>
     <row r="38">
@@ -4514,10 +4514,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>100.55455</v>
+        <v>100.20186</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.083645044</v>
+        <v>0.40673229</v>
       </c>
     </row>
     <row r="39">
@@ -4525,10 +4525,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>99.873187</v>
+        <v>100.23147</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.17496457</v>
+        <v>0.32078827</v>
       </c>
     </row>
     <row r="40">
@@ -4536,10 +4536,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>96</v>
+        <v>100.35856</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.0042831067</v>
+        <v>0.50289703</v>
       </c>
     </row>
     <row r="41">
@@ -4547,10 +4547,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>99.519918</v>
+        <v>100.35724</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>0.50496394</v>
       </c>
     </row>
     <row r="42">
@@ -4558,10 +4558,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>103.81306</v>
+        <v>100.38946</v>
       </c>
       <c r="C42" t="n">
-        <v>0.074553255</v>
+        <v>0.58396522</v>
       </c>
     </row>
     <row r="43">
@@ -4569,10 +4569,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>101.83592</v>
+        <v>100.38164</v>
       </c>
       <c r="C43" t="n">
-        <v>0.092991807</v>
+        <v>0.60620889</v>
       </c>
     </row>
     <row r="44">
@@ -4580,10 +4580,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>100.34667</v>
+        <v>100.37596</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.0045996385</v>
+        <v>0.49702188</v>
       </c>
     </row>
     <row r="45">
@@ -4591,10 +4591,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>101.06558</v>
+        <v>100.39224</v>
       </c>
       <c r="C45" t="n">
-        <v>0.027600676</v>
+        <v>0.52631574</v>
       </c>
     </row>
     <row r="46">
@@ -4602,10 +4602,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>100</v>
+        <v>100.37438</v>
       </c>
       <c r="C46" t="n">
-        <v>0.10140332</v>
+        <v>0.61815372</v>
       </c>
     </row>
     <row r="47">
@@ -4613,10 +4613,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>101.49878</v>
+        <v>100.38031</v>
       </c>
       <c r="C47" t="n">
-        <v>0.21466457</v>
+        <v>0.7285305</v>
       </c>
     </row>
     <row r="48">
@@ -4624,10 +4624,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>101.46098</v>
+        <v>100.4012</v>
       </c>
       <c r="C48" t="n">
-        <v>0.059390849</v>
+        <v>0.55650736</v>
       </c>
     </row>
     <row r="49">
@@ -4635,10 +4635,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>98.661399</v>
+        <v>100.49293</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.13537611</v>
+        <v>0.36202525</v>
       </c>
     </row>
     <row r="50">
@@ -4646,10 +4646,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>117.52097</v>
+        <v>109.24059</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.50719739</v>
+        <v>-0.052710409</v>
       </c>
     </row>
     <row r="51">
@@ -4657,10 +4657,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>120</v>
+        <v>110.53446</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.50985848</v>
+        <v>-0.056209016</v>
       </c>
     </row>
     <row r="52">
@@ -4668,10 +4668,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>105.94225</v>
+        <v>103.34923</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.32728701</v>
+        <v>0.14084416</v>
       </c>
     </row>
     <row r="53">
@@ -4679,10 +4679,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>110.99418</v>
+        <v>105.79704</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.44721884</v>
+        <v>0.007938618</v>
       </c>
     </row>
     <row r="54">
@@ -4690,10 +4690,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>107.13412</v>
+        <v>103.75825</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.47171657</v>
+        <v>-0.017641083</v>
       </c>
     </row>
     <row r="55">
@@ -4701,10 +4701,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>167.61325</v>
+        <v>135.44104</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.46857848</v>
+        <v>-0.014929016</v>
       </c>
     </row>
     <row r="56">
@@ -4715,7 +4715,7 @@
         <v>100</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.33685388</v>
+        <v>0.031695636</v>
       </c>
     </row>
     <row r="57">
@@ -4726,7 +4726,7 @@
         <v>100</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.40059763</v>
+        <v>0.0047097621</v>
       </c>
     </row>
     <row r="58">
@@ -4734,10 +4734,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>103.61933</v>
+        <v>101.91758</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.31896338</v>
+        <v>0.13742896</v>
       </c>
     </row>
     <row r="59">
@@ -4745,10 +4745,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>96.380669</v>
+        <v>98.082419</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.37250348</v>
+        <v>0.081145984</v>
       </c>
     </row>
     <row r="60">
@@ -4756,10 +4756,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>100.61223</v>
+        <v>100.34994</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.18716279</v>
+        <v>0.27928976</v>
       </c>
     </row>
     <row r="61">
@@ -4767,10 +4767,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>100.87269</v>
+        <v>100.31747</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.15273828</v>
+        <v>0.31231194</v>
       </c>
     </row>
     <row r="62">
@@ -4778,10 +4778,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>101.10492</v>
+        <v>100.43664</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.052381794</v>
+        <v>0.41653621</v>
       </c>
     </row>
     <row r="63">
@@ -4789,10 +4789,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>100.79335</v>
+        <v>100.624</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.14652553</v>
+        <v>0.3292014</v>
       </c>
     </row>
     <row r="64">
@@ -4800,10 +4800,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>101.13395</v>
+        <v>101.18812</v>
       </c>
       <c r="C64" t="n">
-        <v>0.023961477</v>
+        <v>0.51430278</v>
       </c>
     </row>
     <row r="65">
@@ -4811,10 +4811,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>101.04779</v>
+        <v>101.009</v>
       </c>
       <c r="C65" t="n">
-        <v>0.025020144</v>
+        <v>0.51377538</v>
       </c>
     </row>
     <row r="66">
@@ -4822,10 +4822,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>100.36798</v>
+        <v>101.00063</v>
       </c>
       <c r="C66" t="n">
-        <v>0.090355245</v>
+        <v>0.58645033</v>
       </c>
     </row>
     <row r="67">
@@ -4833,10 +4833,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>100</v>
+        <v>100.99156</v>
       </c>
       <c r="C67" t="n">
-        <v>0.10619085</v>
+        <v>0.60619503</v>
       </c>
     </row>
     <row r="68">
@@ -4844,10 +4844,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>101.63176</v>
+        <v>100.92416</v>
       </c>
       <c r="C68" t="n">
-        <v>0.02287976</v>
+        <v>0.5080750000000001</v>
       </c>
     </row>
     <row r="69">
@@ -4855,10 +4855,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>102.13957</v>
+        <v>100.85039</v>
       </c>
       <c r="C69" t="n">
-        <v>0.057218556</v>
+        <v>0.53931816</v>
       </c>
     </row>
     <row r="70">
@@ -4866,10 +4866,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>100.39193</v>
+        <v>101.05693</v>
       </c>
       <c r="C70" t="n">
-        <v>0.12540213</v>
+        <v>0.62203034</v>
       </c>
     </row>
     <row r="71">
@@ -4877,10 +4877,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>100.38252</v>
+        <v>101.0348</v>
       </c>
       <c r="C71" t="n">
-        <v>0.23544151</v>
+        <v>0.73186017</v>
       </c>
     </row>
     <row r="72">
@@ -4888,10 +4888,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>102.41886</v>
+        <v>100.80982</v>
       </c>
       <c r="C72" t="n">
-        <v>0.090184894</v>
+        <v>0.57058189</v>
       </c>
     </row>
     <row r="73">
@@ -4899,10 +4899,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>102.97242</v>
+        <v>102.01442</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.11033941</v>
+        <v>0.37150978</v>
       </c>
     </row>
     <row r="74">
@@ -4910,10 +4910,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>102.92676</v>
+        <v>100.86091</v>
       </c>
       <c r="C74" t="n">
-        <v>0.095044894</v>
+        <v>0.57666027</v>
       </c>
     </row>
     <row r="75">
@@ -4921,10 +4921,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>105.9134</v>
+        <v>100.355</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.32902923</v>
+        <v>0.13743732</v>
       </c>
     </row>
     <row r="76">
@@ -4932,10 +4932,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>80.193747</v>
+        <v>100.24036</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.017783107</v>
+        <v>0.48426462</v>
       </c>
     </row>
     <row r="77">
@@ -4943,10 +4943,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>115.96335</v>
+        <v>100.45922</v>
       </c>
       <c r="C77" t="n">
-        <v>0.082545255</v>
+        <v>0.58666125</v>
       </c>
     </row>
     <row r="78">
@@ -4954,10 +4954,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>97.263003</v>
+        <v>101.13622</v>
       </c>
       <c r="C78" t="n">
-        <v>0.12123489</v>
+        <v>0.6094159300000001</v>
       </c>
     </row>
     <row r="79">
@@ -4965,10 +4965,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>104.39549</v>
+        <v>100.69638</v>
       </c>
       <c r="C79" t="n">
-        <v>0.082790849</v>
+        <v>0.5813512</v>
       </c>
     </row>
   </sheetData>

--- a/conejo/output_test.xlsx
+++ b/conejo/output_test.xlsx
@@ -906,7 +906,7 @@
         <v>100</v>
       </c>
       <c r="C43" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -917,7 +917,7 @@
         <v>100</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
@@ -1547,7 +1547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1810,10 +1810,10 @@
         <v>175</v>
       </c>
       <c r="C13" t="n">
-        <v>-60.130019</v>
+        <v>3.6946489</v>
       </c>
       <c r="D13" t="n">
-        <v>3.3907669</v>
+        <v>0.70999227</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>175</v>
       </c>
       <c r="C14" t="n">
-        <v>-27.313038</v>
+        <v>-60.130019</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.1183988</v>
+        <v>3.3907669</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1847,13 +1847,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="C15" t="n">
-        <v>-162.98913</v>
+        <v>-27.313038</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.1245487</v>
+        <v>-4.1183988</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1870,10 +1870,10 @@
         <v>400</v>
       </c>
       <c r="C16" t="n">
-        <v>-200.5349</v>
+        <v>-162.98913</v>
       </c>
       <c r="D16" t="n">
-        <v>-3.250397</v>
+        <v>-3.1245487</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1890,10 +1890,10 @@
         <v>400</v>
       </c>
       <c r="C17" t="n">
-        <v>-227.45106</v>
+        <v>-200.5349</v>
       </c>
       <c r="D17" t="n">
-        <v>4.384617</v>
+        <v>-3.250397</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1910,10 +1910,10 @@
         <v>400</v>
       </c>
       <c r="C18" t="n">
-        <v>-264.99683</v>
+        <v>-227.45106</v>
       </c>
       <c r="D18" t="n">
-        <v>4.2587687</v>
+        <v>4.384617</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1927,13 +1927,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="C19" t="n">
-        <v>-291.80213</v>
+        <v>-264.99683</v>
       </c>
       <c r="D19" t="n">
-        <v>0.12494801</v>
+        <v>4.2587687</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>500</v>
       </c>
       <c r="C20" t="n">
-        <v>-98.63806599999999</v>
+        <v>-291.80213</v>
       </c>
       <c r="D20" t="n">
-        <v>0.52070462</v>
+        <v>0.12494801</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>500</v>
       </c>
       <c r="C21" t="n">
-        <v>-226.09704</v>
+        <v>-98.63806599999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.25079626</v>
+        <v>0.52070462</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1990,10 +1990,10 @@
         <v>500</v>
       </c>
       <c r="C22" t="n">
-        <v>-239.43469</v>
+        <v>-226.09704</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6576118399999999</v>
+        <v>0.25079626</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2010,10 +2010,10 @@
         <v>500</v>
       </c>
       <c r="C23" t="n">
-        <v>-142.21273</v>
+        <v>-239.43469</v>
       </c>
       <c r="D23" t="n">
-        <v>0.40681558</v>
+        <v>0.6576118399999999</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2030,10 +2030,10 @@
         <v>500</v>
       </c>
       <c r="C24" t="n">
-        <v>-292.63807</v>
+        <v>-142.21273</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7314660200000001</v>
+        <v>0.40681558</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>500</v>
       </c>
       <c r="C25" t="n">
-        <v>-3.2125197</v>
+        <v>-49.686438</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.38170698</v>
+        <v>0.23639732</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2070,10 +2070,10 @@
         <v>500</v>
       </c>
       <c r="C26" t="n">
-        <v>-210.33898</v>
+        <v>-292.63807</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.21956352</v>
+        <v>0.7314660200000001</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>500</v>
       </c>
       <c r="C27" t="n">
-        <v>-210.33898</v>
+        <v>-3.2125197</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.21956352</v>
+        <v>-0.38170698</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2110,10 +2110,10 @@
         <v>500</v>
       </c>
       <c r="C28" t="n">
-        <v>261.89049</v>
+        <v>-210.33898</v>
       </c>
       <c r="D28" t="n">
-        <v>1.6335867</v>
+        <v>-0.21956352</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2130,10 +2130,10 @@
         <v>500</v>
       </c>
       <c r="C29" t="n">
-        <v>-278.78457</v>
+        <v>-210.33898</v>
       </c>
       <c r="D29" t="n">
-        <v>0.08541646899999999</v>
+        <v>-0.21956352</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2150,10 +2150,10 @@
         <v>500</v>
       </c>
       <c r="C30" t="n">
-        <v>37.933983</v>
+        <v>261.89049</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.30684004</v>
+        <v>1.6335867</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2170,10 +2170,10 @@
         <v>500</v>
       </c>
       <c r="C31" t="n">
-        <v>-143.50365</v>
+        <v>-278.78457</v>
       </c>
       <c r="D31" t="n">
-        <v>0.039784363</v>
+        <v>0.08541646899999999</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2190,10 +2190,10 @@
         <v>500</v>
       </c>
       <c r="C32" t="n">
-        <v>-135.28092</v>
+        <v>37.933983</v>
       </c>
       <c r="D32" t="n">
-        <v>0.046568402</v>
+        <v>-0.30684004</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>500</v>
       </c>
       <c r="C33" t="n">
-        <v>-38.251826</v>
+        <v>-143.50365</v>
       </c>
       <c r="D33" t="n">
-        <v>0.036942623</v>
+        <v>0.039784363</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>500</v>
       </c>
       <c r="C34" t="n">
-        <v>-38.251826</v>
+        <v>-135.28092</v>
       </c>
       <c r="D34" t="n">
-        <v>0.036942623</v>
+        <v>0.046568402</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>500</v>
       </c>
       <c r="C35" t="n">
-        <v>-71.533008</v>
+        <v>-38.251826</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.26681743</v>
+        <v>0.036942623</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -2270,10 +2270,10 @@
         <v>500</v>
       </c>
       <c r="C36" t="n">
-        <v>-71.533008</v>
+        <v>-38.251826</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.26681743</v>
+        <v>0.036942623</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>500</v>
       </c>
       <c r="C37" t="n">
-        <v>-135.53301</v>
+        <v>-71.533008</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.14674958</v>
+        <v>-0.26681743</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>500</v>
       </c>
       <c r="C38" t="n">
-        <v>-135.53301</v>
+        <v>-71.533008</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.14674958</v>
+        <v>-0.26681743</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -2330,10 +2330,10 @@
         <v>500</v>
       </c>
       <c r="C39" t="n">
-        <v>-164.71908</v>
+        <v>-135.53301</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.030158584</v>
+        <v>-0.14674958</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -2347,13 +2347,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>175</v>
+        <v>500</v>
       </c>
       <c r="C40" t="n">
-        <v>24.990052</v>
+        <v>-135.53301</v>
       </c>
       <c r="D40" t="n">
-        <v>0.36713513</v>
+        <v>-0.14674958</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -2367,13 +2367,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>175</v>
+        <v>500</v>
       </c>
       <c r="C41" t="n">
-        <v>-91.732021</v>
+        <v>-164.71908</v>
       </c>
       <c r="D41" t="n">
-        <v>-1.8189607</v>
+        <v>-0.030158584</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -2387,13 +2387,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>175</v>
+        <v>500</v>
       </c>
       <c r="C42" t="n">
-        <v>-41.25803</v>
+        <v>7.2865617</v>
       </c>
       <c r="D42" t="n">
-        <v>-1.496278</v>
+        <v>-0.13951417</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -2410,10 +2410,10 @@
         <v>175</v>
       </c>
       <c r="C43" t="n">
-        <v>-50.509948</v>
+        <v>24.990052</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.3083064</v>
+        <v>0.36713513</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -2430,10 +2430,10 @@
         <v>175</v>
       </c>
       <c r="C44" t="n">
-        <v>-21.5</v>
+        <v>-91.732021</v>
       </c>
       <c r="D44" t="n">
-        <v>7.012908</v>
+        <v>-1.8189607</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>175</v>
       </c>
       <c r="C45" t="n">
-        <v>2.8699097</v>
+        <v>-41.25803</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.19357947</v>
+        <v>-1.496278</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -2467,13 +2467,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="C46" t="n">
-        <v>-270.90728</v>
+        <v>-50.509948</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.21706095</v>
+        <v>-1.3083064</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>175</v>
       </c>
       <c r="C47" t="n">
-        <v>-124.50995</v>
+        <v>-21.5</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.071369</v>
+        <v>7.012908</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>175</v>
       </c>
       <c r="C48" t="n">
-        <v>-112.25803</v>
+        <v>2.8699097</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.5490878</v>
+        <v>-0.19357947</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -2527,16 +2527,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>175</v>
+        <v>400</v>
       </c>
       <c r="C49" t="n">
-        <v>-157.5</v>
+        <v>-270.90728</v>
       </c>
       <c r="D49" t="n">
-        <v>2.2280593</v>
+        <v>-0.21706095</v>
       </c>
       <c r="E49" t="n">
-        <v>12.653468</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -2550,10 +2550,10 @@
         <v>175</v>
       </c>
       <c r="C50" t="n">
-        <v>54.928628</v>
+        <v>-124.50995</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>-1.071369</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -2570,10 +2570,10 @@
         <v>175</v>
       </c>
       <c r="C51" t="n">
-        <v>-75.09113499999999</v>
+        <v>-112.25803</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5164128</v>
+        <v>-1.5490878</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -2590,13 +2590,13 @@
         <v>175</v>
       </c>
       <c r="C52" t="n">
-        <v>-40.980238</v>
+        <v>-157.5</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.5164128</v>
+        <v>2.2280593</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>12.653468</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2607,13 +2607,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="C53" t="n">
-        <v>-166.80027</v>
+        <v>54.928628</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.37446351</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -2627,13 +2627,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="C54" t="n">
-        <v>-204.9309</v>
+        <v>-75.09113499999999</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.36461625</v>
+        <v>0.5164128</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -2647,13 +2647,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="C55" t="n">
-        <v>-233.80382</v>
+        <v>-40.980238</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6583621</v>
+        <v>-0.5164128</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -2670,10 +2670,10 @@
         <v>400</v>
       </c>
       <c r="C56" t="n">
-        <v>-271.93445</v>
+        <v>-166.80027</v>
       </c>
       <c r="D56" t="n">
-        <v>0.66820936</v>
+        <v>-0.37446351</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -2687,13 +2687,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="C57" t="n">
-        <v>-282.44193</v>
+        <v>-204.9309</v>
       </c>
       <c r="D57" t="n">
-        <v>0.059913155</v>
+        <v>-0.36461625</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -2707,13 +2707,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="C58" t="n">
-        <v>-118.16215</v>
+        <v>-233.80382</v>
       </c>
       <c r="D58" t="n">
-        <v>0.089525284</v>
+        <v>0.6583621</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="C59" t="n">
-        <v>-215.71332</v>
+        <v>-271.93445</v>
       </c>
       <c r="D59" t="n">
-        <v>0.050065896</v>
+        <v>0.66820936</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -2750,10 +2750,10 @@
         <v>500</v>
       </c>
       <c r="C60" t="n">
-        <v>-261.15203</v>
+        <v>-282.44193</v>
       </c>
       <c r="D60" t="n">
-        <v>0.24940293</v>
+        <v>0.059913155</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -2770,10 +2770,10 @@
         <v>500</v>
       </c>
       <c r="C61" t="n">
-        <v>-172.15526</v>
+        <v>-118.16215</v>
       </c>
       <c r="D61" t="n">
-        <v>0.19933703</v>
+        <v>0.089525284</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>500</v>
       </c>
       <c r="C62" t="n">
-        <v>-312.16215</v>
+        <v>-215.71332</v>
       </c>
       <c r="D62" t="n">
-        <v>0.12576171</v>
+        <v>0.050065896</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -2810,10 +2810,10 @@
         <v>500</v>
       </c>
       <c r="C63" t="n">
-        <v>-12.158259</v>
+        <v>-261.15203</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.0013239695</v>
+        <v>0.24940293</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -2830,10 +2830,10 @@
         <v>500</v>
       </c>
       <c r="C64" t="n">
-        <v>-235.21773</v>
+        <v>-172.15526</v>
       </c>
       <c r="D64" t="n">
-        <v>0.015821756</v>
+        <v>0.19933703</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -2850,10 +2850,10 @@
         <v>500</v>
       </c>
       <c r="C65" t="n">
-        <v>-235.21773</v>
+        <v>-312.16215</v>
       </c>
       <c r="D65" t="n">
-        <v>0.015821756</v>
+        <v>0.12576171</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         <v>500</v>
       </c>
       <c r="C66" t="n">
-        <v>270.90728</v>
+        <v>-12.158259</v>
       </c>
       <c r="D66" t="n">
-        <v>0.13437106</v>
+        <v>-0.0013239695</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -2890,10 +2890,10 @@
         <v>500</v>
       </c>
       <c r="C67" t="n">
-        <v>-303.8511</v>
+        <v>-235.21773</v>
       </c>
       <c r="D67" t="n">
-        <v>0.032228057</v>
+        <v>0.015821756</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -2910,10 +2910,10 @@
         <v>500</v>
       </c>
       <c r="C68" t="n">
-        <v>34.530689</v>
+        <v>-235.21773</v>
       </c>
       <c r="D68" t="n">
-        <v>0.018725063</v>
+        <v>0.015821756</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>500</v>
       </c>
       <c r="C69" t="n">
-        <v>-158.88333</v>
+        <v>270.90728</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.0078204681</v>
+        <v>0.13437106</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -2950,10 +2950,10 @@
         <v>500</v>
       </c>
       <c r="C70" t="n">
-        <v>-137.68121</v>
+        <v>-303.8511</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.009154016100000001</v>
+        <v>0.032228057</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -2970,10 +2970,10 @@
         <v>500</v>
       </c>
       <c r="C71" t="n">
-        <v>-45.941663</v>
+        <v>34.530689</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.0072618632</v>
+        <v>0.018725063</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -2990,10 +2990,10 @@
         <v>500</v>
       </c>
       <c r="C72" t="n">
-        <v>-45.941663</v>
+        <v>-158.88333</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.0072618632</v>
+        <v>-0.0078204681</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -3010,10 +3010,10 @@
         <v>500</v>
       </c>
       <c r="C73" t="n">
-        <v>-73.234656</v>
+        <v>-137.68121</v>
       </c>
       <c r="D73" t="n">
-        <v>0.016282663</v>
+        <v>-0.009154016100000001</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -3030,10 +3030,10 @@
         <v>500</v>
       </c>
       <c r="C74" t="n">
-        <v>-73.234656</v>
+        <v>-45.941663</v>
       </c>
       <c r="D74" t="n">
-        <v>0.016282663</v>
+        <v>-0.0072618632</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -3050,10 +3050,10 @@
         <v>500</v>
       </c>
       <c r="C75" t="n">
-        <v>-137.23466</v>
+        <v>-45.941663</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0089554649</v>
+        <v>-0.0072618632</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
         <v>500</v>
       </c>
       <c r="C76" t="n">
-        <v>-137.23466</v>
+        <v>-73.234656</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0089554649</v>
+        <v>0.016282663</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -3090,10 +3090,10 @@
         <v>500</v>
       </c>
       <c r="C77" t="n">
-        <v>-162.31879</v>
+        <v>-73.234656</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0059283152</v>
+        <v>0.016282663</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -3107,13 +3107,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>175</v>
+        <v>500</v>
       </c>
       <c r="C78" t="n">
-        <v>24.990052</v>
+        <v>-137.23466</v>
       </c>
       <c r="D78" t="n">
-        <v>1.2938696</v>
+        <v>0.0089554649</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -3127,13 +3127,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>175</v>
+        <v>500</v>
       </c>
       <c r="C79" t="n">
-        <v>-91.732021</v>
+        <v>-137.23466</v>
       </c>
       <c r="D79" t="n">
-        <v>-5.8913638</v>
+        <v>0.0089554649</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -3147,13 +3147,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>175</v>
+        <v>500</v>
       </c>
       <c r="C80" t="n">
-        <v>-41.25803</v>
+        <v>-162.31879</v>
       </c>
       <c r="D80" t="n">
-        <v>-5.4823388</v>
+        <v>0.0059283152</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -3170,10 +3170,10 @@
         <v>175</v>
       </c>
       <c r="C81" t="n">
-        <v>-50.509948</v>
+        <v>24.990052</v>
       </c>
       <c r="D81" t="n">
-        <v>-4.7374183</v>
+        <v>1.2938696</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -3190,10 +3190,10 @@
         <v>175</v>
       </c>
       <c r="C82" t="n">
-        <v>-21.5</v>
+        <v>-91.732021</v>
       </c>
       <c r="D82" t="n">
-        <v>24.906579</v>
+        <v>-5.8913638</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>175</v>
       </c>
       <c r="C83" t="n">
-        <v>2.8699097</v>
+        <v>-41.25803</v>
       </c>
       <c r="D83" t="n">
-        <v>-1.4316455</v>
+        <v>-5.4823388</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -3227,13 +3227,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="C84" t="n">
-        <v>-274.60193</v>
+        <v>-50.509948</v>
       </c>
       <c r="D84" t="n">
-        <v>-1.3348037</v>
+        <v>-4.7374183</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -3250,10 +3250,10 @@
         <v>175</v>
       </c>
       <c r="C85" t="n">
-        <v>-124.50995</v>
+        <v>-21.5</v>
       </c>
       <c r="D85" t="n">
-        <v>-3.8794607</v>
+        <v>24.906579</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -3270,10 +3270,10 @@
         <v>175</v>
       </c>
       <c r="C86" t="n">
-        <v>-112.25803</v>
+        <v>2.8699097</v>
       </c>
       <c r="D86" t="n">
-        <v>-5.6758331</v>
+        <v>-1.4316455</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -3287,16 +3287,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>175</v>
+        <v>400</v>
       </c>
       <c r="C87" t="n">
-        <v>-157.5</v>
+        <v>-274.60193</v>
       </c>
       <c r="D87" t="n">
-        <v>7.9130277</v>
+        <v>-1.3348037</v>
       </c>
       <c r="E87" t="n">
-        <v>45.271648</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>175</v>
       </c>
       <c r="C88" t="n">
-        <v>44.239137</v>
+        <v>-124.50995</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>-3.8794607</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -3330,10 +3330,10 @@
         <v>175</v>
       </c>
       <c r="C89" t="n">
-        <v>-80.43588</v>
+        <v>-112.25803</v>
       </c>
       <c r="D89" t="n">
-        <v>1.9175813</v>
+        <v>-5.6758331</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -3350,13 +3350,13 @@
         <v>175</v>
       </c>
       <c r="C90" t="n">
-        <v>-46.324983</v>
+        <v>-157.5</v>
       </c>
       <c r="D90" t="n">
-        <v>-1.9175813</v>
+        <v>7.9130277</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>45.271648</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -3367,13 +3367,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="C91" t="n">
-        <v>-168.8819</v>
+        <v>44.239137</v>
       </c>
       <c r="D91" t="n">
-        <v>-1.5676448</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -3387,13 +3387,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="C92" t="n">
-        <v>-208.19402</v>
+        <v>-80.43588</v>
       </c>
       <c r="D92" t="n">
-        <v>-1.6001159</v>
+        <v>1.9175813</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
@@ -3407,13 +3407,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="C93" t="n">
-        <v>-235.88545</v>
+        <v>-46.324983</v>
       </c>
       <c r="D93" t="n">
-        <v>2.2675178</v>
+        <v>-1.9175813</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -3430,10 +3430,10 @@
         <v>400</v>
       </c>
       <c r="C94" t="n">
-        <v>-275.19757</v>
+        <v>-168.8819</v>
       </c>
       <c r="D94" t="n">
-        <v>2.2350466</v>
+        <v>-1.5676448</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
@@ -3447,13 +3447,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="C95" t="n">
-        <v>-285.9301</v>
+        <v>-208.19402</v>
       </c>
       <c r="D95" t="n">
-        <v>0.08670847</v>
+        <v>-1.6001159</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
@@ -3467,13 +3467,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="C96" t="n">
-        <v>-118.83724</v>
+        <v>-235.88545</v>
       </c>
       <c r="D96" t="n">
-        <v>0.27406659</v>
+        <v>2.2675178</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -3487,13 +3487,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="C97" t="n">
-        <v>-217.1339</v>
+        <v>-275.19757</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1191796</v>
+        <v>2.2350466</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -3510,10 +3510,10 @@
         <v>500</v>
       </c>
       <c r="C98" t="n">
-        <v>-266.25768</v>
+        <v>-285.9301</v>
       </c>
       <c r="D98" t="n">
-        <v>0.49235173</v>
+        <v>0.08670847</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -3530,10 +3530,10 @@
         <v>500</v>
       </c>
       <c r="C99" t="n">
-        <v>-177.064</v>
+        <v>-118.83724</v>
       </c>
       <c r="D99" t="n">
-        <v>0.37317213</v>
+        <v>0.27406659</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>500</v>
       </c>
       <c r="C100" t="n">
-        <v>-312.83724</v>
+        <v>-217.1339</v>
       </c>
       <c r="D100" t="n">
-        <v>0.38499831</v>
+        <v>0.1191796</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -3570,10 +3570,10 @@
         <v>500</v>
       </c>
       <c r="C101" t="n">
-        <v>3.1023958</v>
+        <v>-266.25768</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.17911456</v>
+        <v>0.49235173</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -3590,10 +3590,10 @@
         <v>500</v>
       </c>
       <c r="C102" t="n">
-        <v>-219.85216</v>
+        <v>-177.064</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.13118207</v>
+        <v>0.37317213</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -3610,10 +3610,10 @@
         <v>500</v>
       </c>
       <c r="C103" t="n">
-        <v>-219.85216</v>
+        <v>-312.83724</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.13118207</v>
+        <v>0.38499831</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>500</v>
       </c>
       <c r="C104" t="n">
-        <v>274.60193</v>
+        <v>3.1023958</v>
       </c>
       <c r="D104" t="n">
-        <v>0.82630708</v>
+        <v>-0.17911456</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -3650,10 +3650,10 @@
         <v>500</v>
       </c>
       <c r="C105" t="n">
-        <v>-279.51907</v>
+        <v>-219.85216</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.0083760876</v>
+        <v>-0.13118207</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -3670,10 +3670,10 @@
         <v>500</v>
       </c>
       <c r="C106" t="n">
-        <v>24.784226</v>
+        <v>-219.85216</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.084837758</v>
+        <v>-0.13118207</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -3690,10 +3690,10 @@
         <v>500</v>
       </c>
       <c r="C107" t="n">
-        <v>-141.03352</v>
+        <v>274.60193</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.009066964</v>
+        <v>0.82630708</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
@@ -3710,10 +3710,10 @@
         <v>500</v>
       </c>
       <c r="C108" t="n">
-        <v>-138.48555</v>
+        <v>-279.51907</v>
       </c>
       <c r="D108" t="n">
-        <v>0.034175722</v>
+        <v>-0.0083760876</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -3730,10 +3730,10 @@
         <v>500</v>
       </c>
       <c r="C109" t="n">
-        <v>-60.90506</v>
+        <v>24.784226</v>
       </c>
       <c r="D109" t="n">
-        <v>0.065375535</v>
+        <v>-0.084837758</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>500</v>
       </c>
       <c r="C110" t="n">
-        <v>-60.90506</v>
+        <v>-141.03352</v>
       </c>
       <c r="D110" t="n">
-        <v>0.065375535</v>
+        <v>-0.009066964</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>500</v>
       </c>
       <c r="C111" t="n">
-        <v>-78.10788700000001</v>
+        <v>-138.48555</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.073771964</v>
+        <v>0.034175722</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>500</v>
       </c>
       <c r="C112" t="n">
-        <v>-78.10788700000001</v>
+        <v>-60.90506</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.073771964</v>
+        <v>0.065375535</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
@@ -3810,10 +3810,10 @@
         <v>500</v>
       </c>
       <c r="C113" t="n">
-        <v>-142.10789</v>
+        <v>-60.90506</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.04057458</v>
+        <v>0.065375535</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -3830,10 +3830,10 @@
         <v>500</v>
       </c>
       <c r="C114" t="n">
-        <v>-142.10789</v>
+        <v>-78.10788700000001</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.04057458</v>
+        <v>-0.073771964</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -3850,10 +3850,10 @@
         <v>500</v>
       </c>
       <c r="C115" t="n">
-        <v>-161.51445</v>
+        <v>-78.10788700000001</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.022132849</v>
+        <v>-0.073771964</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="C116" t="n">
-        <v>-67.537462</v>
+        <v>-142.10789</v>
       </c>
       <c r="D116" t="n">
-        <v>0.051088748</v>
+        <v>-0.04057458</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -3887,13 +3887,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>175</v>
+        <v>500</v>
       </c>
       <c r="C117" t="n">
-        <v>3.6946489</v>
+        <v>-142.10789</v>
       </c>
       <c r="D117" t="n">
-        <v>0.35499614</v>
+        <v>-0.04057458</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
@@ -3907,13 +3907,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>175</v>
+        <v>500</v>
       </c>
       <c r="C118" t="n">
-        <v>-3.6946489</v>
+        <v>-161.51445</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.35499614</v>
+        <v>-0.022132849</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -3930,10 +3930,10 @@
         <v>500</v>
       </c>
       <c r="C119" t="n">
-        <v>-49.686438</v>
+        <v>-67.537462</v>
       </c>
       <c r="D119" t="n">
-        <v>0.11819866</v>
+        <v>0.55062318</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -3950,10 +3950,10 @@
         <v>500</v>
       </c>
       <c r="C120" t="n">
-        <v>49.686438</v>
+        <v>47.776599</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.11819866</v>
+        <v>-0.59035887</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
@@ -3967,118 +3967,18 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="C121" t="n">
-        <v>7.2865617</v>
+        <v>-67.537462</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.069757085</v>
+        <v>0.051088748</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>500</v>
-      </c>
-      <c r="C122" t="n">
-        <v>-7.2865617</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.069757085</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>500</v>
-      </c>
-      <c r="C123" t="n">
-        <v>-67.537462</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.27531159</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>500</v>
-      </c>
-      <c r="C124" t="n">
-        <v>67.537462</v>
-      </c>
-      <c r="D124" t="n">
-        <v>-0.27531159</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>500</v>
-      </c>
-      <c r="C125" t="n">
-        <v>47.776599</v>
-      </c>
-      <c r="D125" t="n">
-        <v>-0.29517943</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>500</v>
-      </c>
-      <c r="C126" t="n">
-        <v>-47.776599</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.29517943</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0</v>
-      </c>
-      <c r="F126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4093,7 +3993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4916,61 +4816,6 @@
         <v>0.57666027</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>100.355</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.13743732</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>100.24036</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.48426462</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>100.45922</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.58666125</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>101.13622</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0.6094159300000001</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>100.69638</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.5813512</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/conejo/output_test.xlsx
+++ b/conejo/output_test.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,10 +452,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -463,10 +463,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>112.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -474,10 +474,1066 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="C4" t="n">
-        <v>137.5</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>76</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>76</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.0161967</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>76</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>201.27146</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>197</v>
+      </c>
+      <c r="C13" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>197</v>
+      </c>
+      <c r="C14" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>197</v>
+      </c>
+      <c r="C15" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>155</v>
+      </c>
+      <c r="C22" t="n">
+        <v>48.925765</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>155</v>
+      </c>
+      <c r="C23" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>400</v>
+      </c>
+      <c r="C24" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>400</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>50</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>50</v>
+      </c>
+      <c r="C27" t="n">
+        <v>10.445609</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>50</v>
+      </c>
+      <c r="C28" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>50</v>
+      </c>
+      <c r="C29" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>50</v>
+      </c>
+      <c r="C30" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>50</v>
+      </c>
+      <c r="C31" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>155</v>
+      </c>
+      <c r="C32" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>155</v>
+      </c>
+      <c r="C33" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>350</v>
+      </c>
+      <c r="C34" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>20</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>20</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>76</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>76</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-8.0311621</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>20</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>20</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>76</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-101.55567</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>76</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>100</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>100</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-113.9042</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>100</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>197</v>
+      </c>
+      <c r="C46" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>197</v>
+      </c>
+      <c r="C47" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>197</v>
+      </c>
+      <c r="C48" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>12</v>
+      </c>
+      <c r="C50" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>12</v>
+      </c>
+      <c r="C51" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>12</v>
+      </c>
+      <c r="C52" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>12</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1156.5196</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>12</v>
+      </c>
+      <c r="C54" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>155</v>
+      </c>
+      <c r="C55" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>155</v>
+      </c>
+      <c r="C56" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>400</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-335.21049</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>400</v>
+      </c>
+      <c r="C58" t="n">
+        <v>282.32096</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>50</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>50</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>50</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>50</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>50</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>50</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>155</v>
+      </c>
+      <c r="C65" t="n">
+        <v>958.9180699999999</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>155</v>
+      </c>
+      <c r="C66" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>350</v>
+      </c>
+      <c r="C67" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>20</v>
+      </c>
+      <c r="C68" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>20</v>
+      </c>
+      <c r="C69" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>76</v>
+      </c>
+      <c r="C70" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>76</v>
+      </c>
+      <c r="C71" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>20</v>
+      </c>
+      <c r="C72" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>20</v>
+      </c>
+      <c r="C73" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>76</v>
+      </c>
+      <c r="C74" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>76</v>
+      </c>
+      <c r="C75" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>100</v>
+      </c>
+      <c r="C76" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>100</v>
+      </c>
+      <c r="C77" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>100</v>
+      </c>
+      <c r="C78" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>197</v>
+      </c>
+      <c r="C79" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>197</v>
+      </c>
+      <c r="C80" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>197</v>
+      </c>
+      <c r="C81" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>12</v>
+      </c>
+      <c r="C83" t="n">
+        <v>59.530289</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>12</v>
+      </c>
+      <c r="C84" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>12</v>
+      </c>
+      <c r="C85" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>12</v>
+      </c>
+      <c r="C86" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>12</v>
+      </c>
+      <c r="C87" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>155</v>
+      </c>
+      <c r="C88" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>155</v>
+      </c>
+      <c r="C89" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>400</v>
+      </c>
+      <c r="C90" t="n">
+        <v>28.753545</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>400</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>50</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>50</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>50</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>50</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>50</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>50</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>155</v>
+      </c>
+      <c r="C98" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>155</v>
+      </c>
+      <c r="C99" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>350</v>
+      </c>
+      <c r="C100" t="n">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -491,7 +1547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-28.998638</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4375</v>
+        <v>4.1608378</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -551,19 +1607,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="C3" t="n">
-        <v>150</v>
+        <v>0.033209984</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.375</v>
+        <v>83.526377</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.3125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -571,18 +1627,2358 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="C4" t="n">
-        <v>112.5</v>
+        <v>-79.034572</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>-58.910296</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>175</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-77.98244099999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>175</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-39</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>175</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-209.93328</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-79.365539</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>400</v>
+      </c>
+      <c r="C8" t="n">
+        <v>29.966488</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-37.214739</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>175</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-151.98244</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>175</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-150.03457</v>
+      </c>
+      <c r="D10" t="n">
+        <v>63.071134</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>175</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-175</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14.960604</v>
+      </c>
+      <c r="E11" t="n">
+        <v>14.960604</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>175</v>
+      </c>
+      <c r="C12" t="n">
+        <v>194.8049</v>
+      </c>
+      <c r="D12" t="n">
+        <v>20</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>175</v>
+      </c>
+      <c r="C13" t="n">
+        <v>81.466562</v>
+      </c>
+      <c r="D13" t="n">
+        <v>30.960796</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>175</v>
+      </c>
+      <c r="C14" t="n">
+        <v>81.49631599999999</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>175</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-57.69142</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>400</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-151.05116</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-37.082709</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>400</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-304.36824</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>400</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-211.21868</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-37.082709</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>400</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-366.50731</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>500</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-804.76292</v>
+      </c>
+      <c r="D20" t="n">
+        <v>37.082709</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>500</v>
+      </c>
+      <c r="C21" t="n">
+        <v>442.49307</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.7401369</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>500</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-714.80049</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>500</v>
+      </c>
+      <c r="C23" t="n">
+        <v>43.924938</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>500</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-693.5634</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>500</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-500</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>500</v>
+      </c>
+      <c r="C26" t="n">
+        <v>248.49307</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-189.43156</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>500</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-500</v>
+      </c>
+      <c r="D27" t="n">
+        <v>72.05545600000001</v>
+      </c>
+      <c r="E27" t="n">
+        <v>270.82959</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>500</v>
+      </c>
+      <c r="C28" t="n">
+        <v>500</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>500</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-238.10775</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-96</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>500</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-29.966488</v>
+      </c>
+      <c r="D30" t="n">
+        <v>66.150801</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>500</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-480.00656</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>500</v>
+      </c>
+      <c r="C32" t="n">
+        <v>283.49963</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>500</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-448.69166</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>500</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-31.314899</v>
+      </c>
+      <c r="D34" t="n">
+        <v>102.77414</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>500</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-190.84583</v>
+      </c>
+      <c r="D35" t="n">
+        <v>102.77414</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>500</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-190.84583</v>
+      </c>
+      <c r="D36" t="n">
+        <v>102.77414</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>500</v>
+      </c>
+      <c r="C37" t="n">
+        <v>51.249814</v>
+      </c>
+      <c r="D37" t="n">
+        <v>209.6085</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>500</v>
+      </c>
+      <c r="C38" t="n">
+        <v>51.249814</v>
+      </c>
+      <c r="D38" t="n">
+        <v>209.6085</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>500</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-12.750186</v>
+      </c>
+      <c r="D39" t="n">
+        <v>13.165632</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>500</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-12.750186</v>
+      </c>
+      <c r="D40" t="n">
+        <v>13.165632</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>500</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-179.13071</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>500</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-15.138838</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>175</v>
+      </c>
+      <c r="C43" t="n">
+        <v>29.49916</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>175</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-41.530322</v>
+      </c>
+      <c r="D44" t="n">
+        <v>10.960796</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>175</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-104</v>
+      </c>
+      <c r="D45" t="n">
+        <v>20.846743</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>175</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-52.95233</v>
+      </c>
+      <c r="D46" t="n">
+        <v>245.04957</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>175</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-116.10418</v>
+      </c>
+      <c r="D47" t="n">
+        <v>24.080054</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>175</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-175</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-5.9339456</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>400</v>
+      </c>
+      <c r="C49" t="n">
+        <v>34.93624</v>
+      </c>
+      <c r="D49" t="n">
+        <v>20.516998</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>175</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-126.95233</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-228.15483</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>175</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-175</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>20.846743</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>175</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-252.10418</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-24.080054</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>175</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-238.9042</v>
+      </c>
+      <c r="D53" t="n">
+        <v>20</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>175</v>
+      </c>
+      <c r="C54" t="n">
+        <v>30.630739</v>
+      </c>
+      <c r="D54" t="n">
+        <v>16.894742</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>175</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-440.53494</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>400</v>
+      </c>
+      <c r="C56" t="n">
+        <v>224.76162</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-16.894742</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>400</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-671.08321</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-40.894742</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>400</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-602.77459</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>400</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-459.86452</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-24</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>500</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-500</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>24</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>500</v>
+      </c>
+      <c r="C61" t="n">
+        <v>121.98702</v>
+      </c>
+      <c r="D61" t="n">
+        <v>28.509889</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>500</v>
+      </c>
+      <c r="C62" t="n">
+        <v>422.30843</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>500</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-1553.2562</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>500</v>
+      </c>
+      <c r="C64" t="n">
+        <v>248.30843</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>500</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-72.012978</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-28.509889</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>500</v>
+      </c>
+      <c r="C66" t="n">
+        <v>538.1428100000001</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>500</v>
+      </c>
+      <c r="C67" t="n">
+        <v>19.656528</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>500</v>
+      </c>
+      <c r="C68" t="n">
+        <v>19.656528</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>500</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-34.93624</v>
+      </c>
+      <c r="D69" t="n">
+        <v>31.477794</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>500</v>
+      </c>
+      <c r="C70" t="n">
+        <v>361.71531</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>500</v>
+      </c>
+      <c r="C71" t="n">
+        <v>159.41452</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-24</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>500</v>
+      </c>
+      <c r="C72" t="n">
+        <v>290.93312</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>500</v>
+      </c>
+      <c r="C73" t="n">
+        <v>55.643354</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>500</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-188.63868</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>500</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-188.63868</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>500</v>
+      </c>
+      <c r="C76" t="n">
+        <v>255.54071</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>500</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-277.12619</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>500</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-609.08649</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>500</v>
+      </c>
+      <c r="C79" t="n">
+        <v>459.50101</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.234976e-14</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>500</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-55.643354</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>175</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-196.5372</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>175</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-31.871782</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-115.86256</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>175</v>
+      </c>
+      <c r="C83" t="n">
+        <v>312.40898</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>175</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-390.99444</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>175</v>
+      </c>
+      <c r="C85" t="n">
+        <v>289.45724</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>175</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-260.04548</v>
+      </c>
+      <c r="D86" t="n">
+        <v>115.86256</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>400</v>
+      </c>
+      <c r="C87" t="n">
+        <v>48.173696</v>
+      </c>
+      <c r="D87" t="n">
+        <v>100.02673</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>175</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-464.99444</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>175</v>
+      </c>
+      <c r="C89" t="n">
+        <v>241.40898</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>175</v>
+      </c>
+      <c r="C90" t="n">
+        <v>153.45724</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>175</v>
+      </c>
+      <c r="C91" t="n">
+        <v>175</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>26.08548</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>175</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-107.52951</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>175</v>
+      </c>
+      <c r="C93" t="n">
+        <v>111.52951</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>400</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-1228.816</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>400</v>
+      </c>
+      <c r="C95" t="n">
+        <v>221.24654</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-73.91452</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>400</v>
+      </c>
+      <c r="C96" t="n">
+        <v>526.12949</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>400</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-214.73376</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-73.91452</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>500</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-927.10531</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>500</v>
+      </c>
+      <c r="C99" t="n">
+        <v>224.41885</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>500</v>
+      </c>
+      <c r="C100" t="n">
+        <v>482.52273</v>
+      </c>
+      <c r="D100" t="n">
+        <v>73.91452</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>500</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-476.00996</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>500</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-118.58258</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-73.91452</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>500</v>
+      </c>
+      <c r="C103" t="n">
+        <v>30.418846</v>
+      </c>
+      <c r="D103" t="n">
+        <v>73.09133</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>500</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-144.50131</v>
+      </c>
+      <c r="D104" t="n">
+        <v>27.00585</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>500</v>
+      </c>
+      <c r="C105" t="n">
+        <v>69.102649</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>500</v>
+      </c>
+      <c r="C106" t="n">
+        <v>69.102649</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>500</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-48.173696</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-61.921308</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>500</v>
+      </c>
+      <c r="C108" t="n">
+        <v>156.6563</v>
+      </c>
+      <c r="D108" t="n">
+        <v>68.89361</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>500</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-215.73876</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-140.50686</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>500</v>
+      </c>
+      <c r="C110" t="n">
+        <v>146.42804</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-115.89946</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>500</v>
+      </c>
+      <c r="C111" t="n">
+        <v>10.228257</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-102.9745</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>500</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-137.64494</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>500</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-10.788619</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>500</v>
+      </c>
+      <c r="C114" t="n">
+        <v>103.26124</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-6.4989907</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>500</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-500</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>6.4989907</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>500</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-126.35702</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>500</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-398.38175</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>500</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-10.228257</v>
+      </c>
+      <c r="D118" t="n">
+        <v>12.924958</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>500</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-459.33131</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>500</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-9.3848612</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>722</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-459.33131</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -597,7 +3993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0625</v>
+        <v>115.83916</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -633,10 +4029,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.5</v>
+        <v>120</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.40598093</v>
       </c>
     </row>
     <row r="4">
@@ -644,11 +4040,689 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>199.36554</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.25</v>
-      </c>
+        <v>-0.0070073066</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>120</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.168878899999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>56.928866</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.7179386</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>120</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9.245980899999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>22.284995</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>120</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10.401897</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>120</v>
+      </c>
+      <c r="C10" t="n">
+        <v>24.975053</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>120</v>
+      </c>
+      <c r="C11" t="n">
+        <v>19.920981</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>82.91729100000001</v>
+      </c>
+      <c r="C12" t="n">
+        <v>37.66335</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>120</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0410052</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>120</v>
+      </c>
+      <c r="C14" t="n">
+        <v>76.29197000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>86.657427</v>
+      </c>
+      <c r="C15" t="n">
+        <v>19.078641</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>96</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-4.0824497</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-102.77414</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.4175503</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-102.77414</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.16631602</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-102.77414</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.6228383</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-102.77414</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.4502253</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>106.83437</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-3.5002179</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7.5848299</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.4543804</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>120</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-3.2197138</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>162.1508</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-2.5241923</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>120</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.2342348</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>120</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.6713482</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>130.9608</v>
+      </c>
+      <c r="C28" t="n">
+        <v>10.368217</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>365.04957</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>140.84674</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>144.08005</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>100</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>120</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>136.89474</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>120</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>120</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>96</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>96</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>148.50989</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>120</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>120</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>120</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>100</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>96</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>96</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>100</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>100</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>96</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>151.47779</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>73.91452</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>73.91452</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-41.948036</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>73.91452</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>73.91452</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>73.91452</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>100</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>73.91452</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>73.91452</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>73.91452</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>73.91452</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>73.91452</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>73.91452</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>120</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>147.00585</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>215.89946</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>100</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>6.4989907</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>100</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>112.92496</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>58.078692</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
